--- a/output/report.xlsx
+++ b/output/report.xlsx
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -937,9 +937,6 @@
       <c r="P6">
         <v>3</v>
       </c>
-      <c r="Q6">
-        <v>12</v>
-      </c>
       <c r="R6">
         <v>6</v>
       </c>
@@ -2446,6 +2443,12 @@
         <v>102</v>
       </c>
       <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>12</v>
+      </c>
+      <c r="Y43">
         <v>1</v>
       </c>
     </row>

--- a/output/report.xlsx
+++ b/output/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="149">
   <si>
     <t>Cell_Type</t>
   </si>
@@ -40,18 +40,18 @@
     <t>Mito morphology</t>
   </si>
   <si>
+    <t>Mito vat1_df5</t>
+  </si>
+  <si>
     <t>Mito drp1_df5</t>
   </si>
   <si>
+    <t>Mito mfn2_df5</t>
+  </si>
+  <si>
     <t>Mito mfn1_df5</t>
   </si>
   <si>
-    <t>Mito mfn2_df5</t>
-  </si>
-  <si>
-    <t>Mito vat1_df5</t>
-  </si>
-  <si>
     <t>Cell_Migration_DataFileLatB</t>
   </si>
   <si>
@@ -322,6 +322,42 @@
     <t>F</t>
   </si>
   <si>
+    <t>&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
@@ -332,6 +368,99 @@
   </si>
   <si>
     <t>Premanifest</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -791,17 +920,71 @@
       <c r="D2" t="s">
         <v>100</v>
       </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
       <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>12</v>
-      </c>
-      <c r="Z2">
-        <v>4</v>
+        <v>114</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V2" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -817,14 +1000,71 @@
       <c r="D3" t="s">
         <v>100</v>
       </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
       <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3">
-        <v>6</v>
-      </c>
-      <c r="Y3">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -840,50 +1080,74 @@
       <c r="D4" t="s">
         <v>101</v>
       </c>
-      <c r="E4">
-        <v>45</v>
+      <c r="E4" t="s">
+        <v>103</v>
       </c>
       <c r="F4">
         <v>129.4299011230469</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4">
-        <v>28</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>12</v>
-      </c>
-      <c r="S4">
-        <v>5</v>
-      </c>
-      <c r="V4">
-        <v>6</v>
-      </c>
-      <c r="Y4">
-        <v>12</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" t="s">
+        <v>102</v>
+      </c>
+      <c r="V4" t="s">
+        <v>146</v>
+      </c>
+      <c r="W4" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -899,7 +1163,70 @@
       <c r="D5" t="s">
         <v>101</v>
       </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
       <c r="G5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" t="s">
+        <v>102</v>
+      </c>
+      <c r="S5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" t="s">
+        <v>102</v>
+      </c>
+      <c r="W5" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -916,41 +1243,71 @@
       <c r="D6" t="s">
         <v>101</v>
       </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
       <c r="G6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6">
-        <v>44</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>17</v>
-      </c>
-      <c r="L6">
-        <v>16</v>
-      </c>
-      <c r="M6">
-        <v>14</v>
-      </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>6</v>
-      </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>3</v>
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N6" t="s">
+        <v>102</v>
+      </c>
+      <c r="O6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S6" t="s">
+        <v>135</v>
+      </c>
+      <c r="T6" t="s">
+        <v>146</v>
+      </c>
+      <c r="U6" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" t="s">
+        <v>102</v>
+      </c>
+      <c r="W6" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -966,50 +1323,71 @@
       <c r="D7" t="s">
         <v>100</v>
       </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
       <c r="G7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>29</v>
-      </c>
-      <c r="M7">
-        <v>23</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
-      <c r="P7">
-        <v>9</v>
-      </c>
-      <c r="R7">
-        <v>6</v>
-      </c>
-      <c r="S7">
-        <v>5</v>
-      </c>
-      <c r="T7">
-        <v>6</v>
-      </c>
-      <c r="V7">
-        <v>6</v>
-      </c>
-      <c r="X7">
-        <v>3</v>
-      </c>
-      <c r="Y7">
-        <v>9</v>
-      </c>
-      <c r="AA7">
-        <v>8</v>
+        <v>114</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" t="s">
+        <v>146</v>
+      </c>
+      <c r="S7" t="s">
+        <v>135</v>
+      </c>
+      <c r="T7" t="s">
+        <v>146</v>
+      </c>
+      <c r="U7" t="s">
+        <v>102</v>
+      </c>
+      <c r="V7" t="s">
+        <v>146</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1025,20 +1403,74 @@
       <c r="D8" t="s">
         <v>100</v>
       </c>
-      <c r="E8">
-        <v>44</v>
+      <c r="E8" t="s">
+        <v>104</v>
       </c>
       <c r="F8">
         <v>118.6440963745117</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s">
+        <v>102</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" t="s">
+        <v>102</v>
+      </c>
+      <c r="S8" t="s">
+        <v>102</v>
+      </c>
+      <c r="T8" t="s">
+        <v>102</v>
+      </c>
+      <c r="U8" t="s">
+        <v>102</v>
+      </c>
+      <c r="V8" t="s">
+        <v>102</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1054,47 +1486,74 @@
       <c r="D9" t="s">
         <v>100</v>
       </c>
-      <c r="E9">
-        <v>46</v>
+      <c r="E9" t="s">
+        <v>105</v>
       </c>
       <c r="F9">
         <v>140.5238952636719</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>11</v>
-      </c>
-      <c r="U9">
-        <v>12</v>
-      </c>
-      <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="Y9">
-        <v>11</v>
-      </c>
-      <c r="AA9">
-        <v>2</v>
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" t="s">
+        <v>102</v>
+      </c>
+      <c r="T9" t="s">
+        <v>102</v>
+      </c>
+      <c r="U9" t="s">
+        <v>130</v>
+      </c>
+      <c r="V9" t="s">
+        <v>146</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1110,29 +1569,74 @@
       <c r="D10" t="s">
         <v>101</v>
       </c>
-      <c r="E10">
-        <v>44</v>
+      <c r="E10" t="s">
+        <v>104</v>
       </c>
       <c r="F10">
         <v>110.0154037475586</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>12</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" t="s">
+        <v>102</v>
+      </c>
+      <c r="U10" t="s">
+        <v>130</v>
+      </c>
+      <c r="V10" t="s">
+        <v>102</v>
+      </c>
+      <c r="W10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1148,23 +1652,74 @@
       <c r="D11" t="s">
         <v>100</v>
       </c>
-      <c r="E11">
-        <v>46</v>
+      <c r="E11" t="s">
+        <v>105</v>
       </c>
       <c r="F11">
         <v>130.66259765625</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>6</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>102</v>
+      </c>
+      <c r="M11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" t="s">
+        <v>146</v>
+      </c>
+      <c r="S11" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" t="s">
+        <v>102</v>
+      </c>
+      <c r="U11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" t="s">
+        <v>102</v>
+      </c>
+      <c r="W11" t="s">
+        <v>102</v>
+      </c>
+      <c r="X11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1180,47 +1735,74 @@
       <c r="D12" t="s">
         <v>101</v>
       </c>
-      <c r="E12">
-        <v>43</v>
+      <c r="E12" t="s">
+        <v>106</v>
       </c>
       <c r="F12">
         <v>100.1540985107422</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12">
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="s">
+        <v>135</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U12" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W12" t="s">
+        <v>102</v>
+      </c>
+      <c r="X12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1236,32 +1818,74 @@
       <c r="D13" t="s">
         <v>100</v>
       </c>
-      <c r="E13">
-        <v>51</v>
+      <c r="E13" t="s">
+        <v>107</v>
       </c>
       <c r="F13">
         <v>129.4299011230469</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13">
-        <v>27</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>6</v>
-      </c>
-      <c r="W13">
-        <v>6</v>
-      </c>
-      <c r="Y13">
-        <v>6</v>
-      </c>
-      <c r="AA13">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" t="s">
+        <v>102</v>
+      </c>
+      <c r="T13" t="s">
+        <v>102</v>
+      </c>
+      <c r="U13" t="s">
+        <v>102</v>
+      </c>
+      <c r="V13" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1277,38 +1901,74 @@
       <c r="D14" t="s">
         <v>100</v>
       </c>
-      <c r="E14">
-        <v>49</v>
+      <c r="E14" t="s">
+        <v>108</v>
       </c>
       <c r="F14">
         <v>125.8860015869141</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14">
-        <v>23</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>6</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="s">
+        <v>146</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>102</v>
+      </c>
+      <c r="R14" t="s">
+        <v>146</v>
+      </c>
+      <c r="S14" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U14" t="s">
+        <v>102</v>
+      </c>
+      <c r="V14" t="s">
+        <v>102</v>
+      </c>
+      <c r="W14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1324,38 +1984,74 @@
       <c r="D15" t="s">
         <v>100</v>
       </c>
-      <c r="E15">
-        <v>45</v>
+      <c r="E15" t="s">
+        <v>103</v>
       </c>
       <c r="F15">
         <v>131.7411041259766</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>12</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" t="s">
+        <v>102</v>
+      </c>
+      <c r="S15" t="s">
+        <v>102</v>
+      </c>
+      <c r="T15" t="s">
+        <v>102</v>
+      </c>
+      <c r="U15" t="s">
+        <v>130</v>
+      </c>
+      <c r="V15" t="s">
+        <v>102</v>
+      </c>
+      <c r="W15" t="s">
+        <v>102</v>
+      </c>
+      <c r="X15" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -1371,47 +2067,74 @@
       <c r="D16" t="s">
         <v>101</v>
       </c>
-      <c r="E16">
-        <v>50</v>
+      <c r="E16" t="s">
+        <v>109</v>
       </c>
       <c r="F16">
         <v>114.021598815918</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16">
-        <v>30</v>
-      </c>
-      <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <v>6</v>
-      </c>
-      <c r="L16">
-        <v>6</v>
-      </c>
-      <c r="M16">
-        <v>6</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>6</v>
-      </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-      <c r="X16">
-        <v>6</v>
-      </c>
-      <c r="Y16">
-        <v>6</v>
-      </c>
-      <c r="AA16">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>102</v>
+      </c>
+      <c r="R16" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" t="s">
+        <v>135</v>
+      </c>
+      <c r="T16" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" t="s">
+        <v>102</v>
+      </c>
+      <c r="V16" t="s">
+        <v>102</v>
+      </c>
+      <c r="W16" t="s">
+        <v>102</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -1427,50 +2150,74 @@
       <c r="D17" t="s">
         <v>101</v>
       </c>
-      <c r="E17">
-        <v>45</v>
+      <c r="E17" t="s">
+        <v>103</v>
       </c>
       <c r="F17">
         <v>69.33744049072266</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>6</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>12</v>
-      </c>
-      <c r="S17">
-        <v>5</v>
-      </c>
-      <c r="V17">
-        <v>6</v>
-      </c>
-      <c r="Y17">
-        <v>12</v>
-      </c>
-      <c r="AA17">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>102</v>
+      </c>
+      <c r="R17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S17" t="s">
+        <v>135</v>
+      </c>
+      <c r="T17" t="s">
+        <v>102</v>
+      </c>
+      <c r="U17" t="s">
+        <v>102</v>
+      </c>
+      <c r="V17" t="s">
+        <v>146</v>
+      </c>
+      <c r="W17" t="s">
+        <v>102</v>
+      </c>
+      <c r="X17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -1486,29 +2233,74 @@
       <c r="D18" t="s">
         <v>100</v>
       </c>
-      <c r="E18">
-        <v>54</v>
+      <c r="E18" t="s">
+        <v>110</v>
       </c>
       <c r="F18">
         <v>114.6379013061523</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>6</v>
-      </c>
-      <c r="X18">
-        <v>6</v>
-      </c>
-      <c r="Y18">
-        <v>6</v>
-      </c>
-      <c r="AA18">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" t="s">
+        <v>102</v>
+      </c>
+      <c r="S18" t="s">
+        <v>102</v>
+      </c>
+      <c r="T18" t="s">
+        <v>102</v>
+      </c>
+      <c r="U18" t="s">
+        <v>102</v>
+      </c>
+      <c r="V18" t="s">
+        <v>102</v>
+      </c>
+      <c r="W18" t="s">
+        <v>102</v>
+      </c>
+      <c r="X18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -1524,38 +2316,74 @@
       <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="E19">
-        <v>45</v>
+      <c r="E19" t="s">
+        <v>103</v>
       </c>
       <c r="F19">
         <v>76.27118682861328</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19">
-        <v>19</v>
-      </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-      <c r="P19">
-        <v>12</v>
-      </c>
-      <c r="T19">
-        <v>6</v>
-      </c>
-      <c r="V19">
-        <v>6</v>
-      </c>
-      <c r="Y19">
-        <v>12</v>
-      </c>
-      <c r="AA19">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+      <c r="O19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" t="s">
+        <v>102</v>
+      </c>
+      <c r="S19" t="s">
+        <v>102</v>
+      </c>
+      <c r="T19" t="s">
+        <v>146</v>
+      </c>
+      <c r="U19" t="s">
+        <v>102</v>
+      </c>
+      <c r="V19" t="s">
+        <v>146</v>
+      </c>
+      <c r="W19" t="s">
+        <v>102</v>
+      </c>
+      <c r="X19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -1571,35 +2399,74 @@
       <c r="D20" t="s">
         <v>101</v>
       </c>
-      <c r="E20">
-        <v>49</v>
+      <c r="E20" t="s">
+        <v>108</v>
       </c>
       <c r="F20">
         <v>111.2481002807617</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>6</v>
-      </c>
-      <c r="M20">
-        <v>6</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>6</v>
-      </c>
-      <c r="Y20">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>102</v>
+      </c>
+      <c r="R20" t="s">
+        <v>102</v>
+      </c>
+      <c r="S20" t="s">
+        <v>102</v>
+      </c>
+      <c r="T20" t="s">
+        <v>146</v>
+      </c>
+      <c r="U20" t="s">
+        <v>102</v>
+      </c>
+      <c r="V20" t="s">
+        <v>102</v>
+      </c>
+      <c r="W20" t="s">
+        <v>102</v>
+      </c>
+      <c r="X20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -1615,47 +2482,74 @@
       <c r="D21" t="s">
         <v>100</v>
       </c>
-      <c r="E21">
-        <v>48</v>
+      <c r="E21" t="s">
+        <v>111</v>
       </c>
       <c r="F21">
         <v>110.9399032592773</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
-      <c r="I21">
-        <v>28</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>6</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>4</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S21" t="s">
+        <v>147</v>
+      </c>
+      <c r="T21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" t="s">
+        <v>102</v>
+      </c>
+      <c r="V21" t="s">
+        <v>102</v>
+      </c>
+      <c r="W21" t="s">
+        <v>102</v>
+      </c>
+      <c r="X21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -1671,44 +2565,74 @@
       <c r="D22" t="s">
         <v>101</v>
       </c>
-      <c r="E22">
-        <v>41</v>
+      <c r="E22" t="s">
+        <v>112</v>
       </c>
       <c r="F22">
         <v>74.57627105712891</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22">
-        <v>30</v>
-      </c>
-      <c r="I22">
-        <v>21</v>
-      </c>
-      <c r="J22">
-        <v>6</v>
-      </c>
-      <c r="K22">
-        <v>6</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>6</v>
-      </c>
-      <c r="S22">
-        <v>5</v>
-      </c>
-      <c r="Y22">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" t="s">
+        <v>146</v>
+      </c>
+      <c r="M22" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>102</v>
+      </c>
+      <c r="R22" t="s">
+        <v>146</v>
+      </c>
+      <c r="S22" t="s">
+        <v>135</v>
+      </c>
+      <c r="T22" t="s">
+        <v>102</v>
+      </c>
+      <c r="U22" t="s">
+        <v>102</v>
+      </c>
+      <c r="V22" t="s">
+        <v>102</v>
+      </c>
+      <c r="W22" t="s">
+        <v>102</v>
+      </c>
+      <c r="X22" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -1724,41 +2648,74 @@
       <c r="D23" t="s">
         <v>101</v>
       </c>
-      <c r="E23">
-        <v>44</v>
+      <c r="E23" t="s">
+        <v>104</v>
       </c>
       <c r="F23">
         <v>84.12943267822266</v>
       </c>
       <c r="G23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>28</v>
-      </c>
-      <c r="J23">
-        <v>11</v>
-      </c>
-      <c r="K23">
-        <v>11</v>
-      </c>
-      <c r="L23">
-        <v>9</v>
-      </c>
-      <c r="M23">
-        <v>11</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>6</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="H23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>102</v>
+      </c>
+      <c r="R23" t="s">
+        <v>146</v>
+      </c>
+      <c r="S23" t="s">
+        <v>102</v>
+      </c>
+      <c r="T23" t="s">
+        <v>102</v>
+      </c>
+      <c r="U23" t="s">
+        <v>102</v>
+      </c>
+      <c r="V23" t="s">
+        <v>102</v>
+      </c>
+      <c r="W23" t="s">
+        <v>102</v>
+      </c>
+      <c r="X23" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -1774,38 +2731,74 @@
       <c r="D24" t="s">
         <v>101</v>
       </c>
-      <c r="E24">
-        <v>46</v>
+      <c r="E24" t="s">
+        <v>105</v>
       </c>
       <c r="F24">
         <v>91.21726226806641</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>6</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>6</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="H24" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>102</v>
+      </c>
+      <c r="R24" t="s">
+        <v>146</v>
+      </c>
+      <c r="S24" t="s">
+        <v>102</v>
+      </c>
+      <c r="T24" t="s">
+        <v>102</v>
+      </c>
+      <c r="U24" t="s">
+        <v>102</v>
+      </c>
+      <c r="V24" t="s">
+        <v>102</v>
+      </c>
+      <c r="W24" t="s">
+        <v>102</v>
+      </c>
+      <c r="X24" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -1821,35 +2814,74 @@
       <c r="D25" t="s">
         <v>101</v>
       </c>
-      <c r="E25">
-        <v>46</v>
+      <c r="E25" t="s">
+        <v>105</v>
       </c>
       <c r="F25">
         <v>106.0092010498047</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25">
-        <v>19</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>6</v>
-      </c>
-      <c r="W25">
-        <v>2</v>
-      </c>
-      <c r="X25">
-        <v>4</v>
-      </c>
-      <c r="Y25">
-        <v>6</v>
-      </c>
-      <c r="AA25">
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="H25" t="s">
+        <v>122</v>
+      </c>
+      <c r="I25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" t="s">
+        <v>102</v>
+      </c>
+      <c r="N25" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" t="s">
+        <v>102</v>
+      </c>
+      <c r="S25" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U25" t="s">
+        <v>102</v>
+      </c>
+      <c r="V25" t="s">
+        <v>102</v>
+      </c>
+      <c r="W25" t="s">
+        <v>148</v>
+      </c>
+      <c r="X25" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -1865,41 +2897,74 @@
       <c r="D26" t="s">
         <v>100</v>
       </c>
-      <c r="E26">
-        <v>43</v>
+      <c r="E26" t="s">
+        <v>106</v>
       </c>
       <c r="F26">
         <v>94.14483642578125</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H26">
-        <v>20</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>4</v>
-      </c>
-      <c r="K26">
-        <v>6</v>
-      </c>
-      <c r="L26">
-        <v>5</v>
-      </c>
-      <c r="M26">
-        <v>6</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>6</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" t="s">
+        <v>146</v>
+      </c>
+      <c r="N26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>102</v>
+      </c>
+      <c r="R26" t="s">
+        <v>102</v>
+      </c>
+      <c r="S26" t="s">
+        <v>102</v>
+      </c>
+      <c r="T26" t="s">
+        <v>146</v>
+      </c>
+      <c r="U26" t="s">
+        <v>102</v>
+      </c>
+      <c r="V26" t="s">
+        <v>102</v>
+      </c>
+      <c r="W26" t="s">
+        <v>102</v>
+      </c>
+      <c r="X26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -1915,41 +2980,74 @@
       <c r="D27" t="s">
         <v>100</v>
       </c>
-      <c r="E27">
-        <v>50</v>
+      <c r="E27" t="s">
+        <v>109</v>
       </c>
       <c r="F27">
         <v>126.3481979370117</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27">
-        <v>17</v>
-      </c>
-      <c r="J27">
-        <v>2</v>
-      </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>6</v>
-      </c>
-      <c r="X27">
-        <v>6</v>
-      </c>
-      <c r="AA27">
-        <v>2</v>
+        <v>115</v>
+      </c>
+      <c r="H27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" t="s">
+        <v>138</v>
+      </c>
+      <c r="M27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N27" t="s">
+        <v>102</v>
+      </c>
+      <c r="O27" t="s">
+        <v>148</v>
+      </c>
+      <c r="P27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>102</v>
+      </c>
+      <c r="R27" t="s">
+        <v>102</v>
+      </c>
+      <c r="S27" t="s">
+        <v>102</v>
+      </c>
+      <c r="T27" t="s">
+        <v>146</v>
+      </c>
+      <c r="U27" t="s">
+        <v>102</v>
+      </c>
+      <c r="V27" t="s">
+        <v>102</v>
+      </c>
+      <c r="W27" t="s">
+        <v>102</v>
+      </c>
+      <c r="X27" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -1965,41 +3063,74 @@
       <c r="D28" t="s">
         <v>100</v>
       </c>
-      <c r="E28">
-        <v>43</v>
+      <c r="E28" t="s">
+        <v>106</v>
       </c>
       <c r="F28">
         <v>96.14791870117188</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28">
-        <v>14</v>
-      </c>
-      <c r="K28">
-        <v>6</v>
-      </c>
-      <c r="L28">
-        <v>6</v>
-      </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>6</v>
-      </c>
-      <c r="Y28">
-        <v>1</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" t="s">
+        <v>146</v>
+      </c>
+      <c r="N28" t="s">
+        <v>138</v>
+      </c>
+      <c r="O28" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>102</v>
+      </c>
+      <c r="R28" t="s">
+        <v>146</v>
+      </c>
+      <c r="S28" t="s">
+        <v>102</v>
+      </c>
+      <c r="T28" t="s">
+        <v>102</v>
+      </c>
+      <c r="U28" t="s">
+        <v>102</v>
+      </c>
+      <c r="V28" t="s">
+        <v>102</v>
+      </c>
+      <c r="W28" t="s">
+        <v>102</v>
+      </c>
+      <c r="X28" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -2015,47 +3146,74 @@
       <c r="D29" t="s">
         <v>100</v>
       </c>
-      <c r="E29">
-        <v>47</v>
+      <c r="E29" t="s">
+        <v>113</v>
       </c>
       <c r="F29">
         <v>60.24652862548828</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29">
-        <v>15</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-      <c r="L29">
-        <v>6</v>
-      </c>
-      <c r="M29">
-        <v>5</v>
-      </c>
-      <c r="O29">
-        <v>3</v>
-      </c>
-      <c r="P29">
-        <v>12</v>
-      </c>
-      <c r="T29">
-        <v>5</v>
-      </c>
-      <c r="V29">
-        <v>6</v>
-      </c>
-      <c r="Y29">
-        <v>12</v>
-      </c>
-      <c r="AA29">
-        <v>3</v>
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" t="s">
+        <v>146</v>
+      </c>
+      <c r="M29" t="s">
+        <v>135</v>
+      </c>
+      <c r="N29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>102</v>
+      </c>
+      <c r="R29" t="s">
+        <v>102</v>
+      </c>
+      <c r="S29" t="s">
+        <v>102</v>
+      </c>
+      <c r="T29" t="s">
+        <v>135</v>
+      </c>
+      <c r="U29" t="s">
+        <v>102</v>
+      </c>
+      <c r="V29" t="s">
+        <v>146</v>
+      </c>
+      <c r="W29" t="s">
+        <v>102</v>
+      </c>
+      <c r="X29" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -2071,35 +3229,74 @@
       <c r="D30" t="s">
         <v>100</v>
       </c>
-      <c r="E30">
-        <v>46</v>
+      <c r="E30" t="s">
+        <v>105</v>
       </c>
       <c r="F30">
         <v>76.42527008056641</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30">
-        <v>11</v>
-      </c>
-      <c r="I30">
-        <v>13</v>
-      </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
-        <v>6</v>
-      </c>
-      <c r="V30">
-        <v>6</v>
-      </c>
-      <c r="Y30">
-        <v>18</v>
-      </c>
-      <c r="AA30">
-        <v>2</v>
+        <v>117</v>
+      </c>
+      <c r="H30" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" t="s">
+        <v>102</v>
+      </c>
+      <c r="K30" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" t="s">
+        <v>102</v>
+      </c>
+      <c r="M30" t="s">
+        <v>102</v>
+      </c>
+      <c r="N30" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30" t="s">
+        <v>148</v>
+      </c>
+      <c r="P30" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>102</v>
+      </c>
+      <c r="R30" t="s">
+        <v>102</v>
+      </c>
+      <c r="S30" t="s">
+        <v>102</v>
+      </c>
+      <c r="T30" t="s">
+        <v>102</v>
+      </c>
+      <c r="U30" t="s">
+        <v>102</v>
+      </c>
+      <c r="V30" t="s">
+        <v>146</v>
+      </c>
+      <c r="W30" t="s">
+        <v>102</v>
+      </c>
+      <c r="X30" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -2115,29 +3312,74 @@
       <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="E31">
-        <v>54</v>
+      <c r="E31" t="s">
+        <v>110</v>
       </c>
       <c r="F31">
         <v>103.5438995361328</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
-      </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-      <c r="P31">
-        <v>6</v>
-      </c>
-      <c r="X31">
-        <v>6</v>
-      </c>
-      <c r="Y31">
-        <v>6</v>
-      </c>
-      <c r="AA31">
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="H31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" t="s">
+        <v>102</v>
+      </c>
+      <c r="L31" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" t="s">
+        <v>102</v>
+      </c>
+      <c r="N31" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" t="s">
+        <v>148</v>
+      </c>
+      <c r="P31" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>102</v>
+      </c>
+      <c r="R31" t="s">
+        <v>102</v>
+      </c>
+      <c r="S31" t="s">
+        <v>102</v>
+      </c>
+      <c r="T31" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" t="s">
+        <v>102</v>
+      </c>
+      <c r="V31" t="s">
+        <v>102</v>
+      </c>
+      <c r="W31" t="s">
+        <v>102</v>
+      </c>
+      <c r="X31" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -2153,38 +3395,74 @@
       <c r="D32" t="s">
         <v>101</v>
       </c>
-      <c r="E32">
-        <v>45</v>
+      <c r="E32" t="s">
+        <v>103</v>
       </c>
       <c r="F32">
         <v>110.9399032592773</v>
       </c>
       <c r="G32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32">
-        <v>13</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <v>5</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="S32">
-        <v>5</v>
-      </c>
-      <c r="Y32">
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="H32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" t="s">
+        <v>139</v>
+      </c>
+      <c r="N32" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>102</v>
+      </c>
+      <c r="R32" t="s">
+        <v>102</v>
+      </c>
+      <c r="S32" t="s">
+        <v>135</v>
+      </c>
+      <c r="T32" t="s">
+        <v>102</v>
+      </c>
+      <c r="U32" t="s">
+        <v>102</v>
+      </c>
+      <c r="V32" t="s">
+        <v>102</v>
+      </c>
+      <c r="W32" t="s">
+        <v>102</v>
+      </c>
+      <c r="X32" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -2200,20 +3478,74 @@
       <c r="D33" t="s">
         <v>100</v>
       </c>
-      <c r="E33">
-        <v>45</v>
+      <c r="E33" t="s">
+        <v>103</v>
       </c>
       <c r="F33">
         <v>138.6748962402344</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="H33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" t="s">
+        <v>102</v>
+      </c>
+      <c r="M33" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" t="s">
+        <v>102</v>
+      </c>
+      <c r="O33" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>102</v>
+      </c>
+      <c r="R33" t="s">
+        <v>102</v>
+      </c>
+      <c r="S33" t="s">
+        <v>102</v>
+      </c>
+      <c r="T33" t="s">
+        <v>102</v>
+      </c>
+      <c r="U33" t="s">
+        <v>102</v>
+      </c>
+      <c r="V33" t="s">
+        <v>102</v>
+      </c>
+      <c r="W33" t="s">
+        <v>102</v>
+      </c>
+      <c r="X33" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -2229,20 +3561,74 @@
       <c r="D34" t="s">
         <v>101</v>
       </c>
-      <c r="E34">
-        <v>45</v>
+      <c r="E34" t="s">
+        <v>103</v>
       </c>
       <c r="F34">
         <v>129.4299011230469</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
-      </c>
-      <c r="P34">
-        <v>1</v>
-      </c>
-      <c r="Y34">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" t="s">
+        <v>102</v>
+      </c>
+      <c r="M34" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" t="s">
+        <v>102</v>
+      </c>
+      <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>102</v>
+      </c>
+      <c r="R34" t="s">
+        <v>102</v>
+      </c>
+      <c r="S34" t="s">
+        <v>102</v>
+      </c>
+      <c r="T34" t="s">
+        <v>102</v>
+      </c>
+      <c r="U34" t="s">
+        <v>102</v>
+      </c>
+      <c r="V34" t="s">
+        <v>102</v>
+      </c>
+      <c r="W34" t="s">
+        <v>102</v>
+      </c>
+      <c r="X34" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -2258,7 +3644,70 @@
       <c r="D35" t="s">
         <v>101</v>
       </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
       <c r="G35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" t="s">
+        <v>102</v>
+      </c>
+      <c r="M35" t="s">
+        <v>102</v>
+      </c>
+      <c r="N35" t="s">
+        <v>102</v>
+      </c>
+      <c r="O35" t="s">
+        <v>102</v>
+      </c>
+      <c r="P35" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>102</v>
+      </c>
+      <c r="R35" t="s">
+        <v>102</v>
+      </c>
+      <c r="S35" t="s">
+        <v>102</v>
+      </c>
+      <c r="T35" t="s">
+        <v>102</v>
+      </c>
+      <c r="U35" t="s">
+        <v>102</v>
+      </c>
+      <c r="V35" t="s">
+        <v>102</v>
+      </c>
+      <c r="W35" t="s">
+        <v>102</v>
+      </c>
+      <c r="X35" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA35" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2275,11 +3724,71 @@
       <c r="D36" t="s">
         <v>100</v>
       </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
       <c r="G36" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q36">
-        <v>12</v>
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36" t="s">
+        <v>102</v>
+      </c>
+      <c r="L36" t="s">
+        <v>102</v>
+      </c>
+      <c r="M36" t="s">
+        <v>102</v>
+      </c>
+      <c r="N36" t="s">
+        <v>102</v>
+      </c>
+      <c r="O36" t="s">
+        <v>102</v>
+      </c>
+      <c r="P36" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>130</v>
+      </c>
+      <c r="R36" t="s">
+        <v>102</v>
+      </c>
+      <c r="S36" t="s">
+        <v>102</v>
+      </c>
+      <c r="T36" t="s">
+        <v>102</v>
+      </c>
+      <c r="U36" t="s">
+        <v>102</v>
+      </c>
+      <c r="V36" t="s">
+        <v>102</v>
+      </c>
+      <c r="W36" t="s">
+        <v>102</v>
+      </c>
+      <c r="X36" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -2295,17 +3804,71 @@
       <c r="D37" t="s">
         <v>101</v>
       </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
       <c r="G37" t="s">
-        <v>102</v>
-      </c>
-      <c r="P37">
-        <v>6</v>
-      </c>
-      <c r="Q37">
-        <v>12</v>
-      </c>
-      <c r="Y37">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" t="s">
+        <v>102</v>
+      </c>
+      <c r="N37" t="s">
+        <v>102</v>
+      </c>
+      <c r="O37" t="s">
+        <v>102</v>
+      </c>
+      <c r="P37" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>130</v>
+      </c>
+      <c r="R37" t="s">
+        <v>102</v>
+      </c>
+      <c r="S37" t="s">
+        <v>102</v>
+      </c>
+      <c r="T37" t="s">
+        <v>102</v>
+      </c>
+      <c r="U37" t="s">
+        <v>102</v>
+      </c>
+      <c r="V37" t="s">
+        <v>102</v>
+      </c>
+      <c r="W37" t="s">
+        <v>102</v>
+      </c>
+      <c r="X37" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -2321,17 +3884,71 @@
       <c r="D38" t="s">
         <v>101</v>
       </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
       <c r="G38" t="s">
-        <v>102</v>
-      </c>
-      <c r="P38">
-        <v>6</v>
-      </c>
-      <c r="Q38">
-        <v>12</v>
-      </c>
-      <c r="Y38">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H38" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" t="s">
+        <v>102</v>
+      </c>
+      <c r="N38" t="s">
+        <v>102</v>
+      </c>
+      <c r="O38" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>130</v>
+      </c>
+      <c r="R38" t="s">
+        <v>102</v>
+      </c>
+      <c r="S38" t="s">
+        <v>102</v>
+      </c>
+      <c r="T38" t="s">
+        <v>102</v>
+      </c>
+      <c r="U38" t="s">
+        <v>102</v>
+      </c>
+      <c r="V38" t="s">
+        <v>102</v>
+      </c>
+      <c r="W38" t="s">
+        <v>102</v>
+      </c>
+      <c r="X38" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -2347,14 +3964,71 @@
       <c r="D39" t="s">
         <v>100</v>
       </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
       <c r="G39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P39">
-        <v>6</v>
-      </c>
-      <c r="Y39">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" t="s">
+        <v>102</v>
+      </c>
+      <c r="O39" t="s">
+        <v>102</v>
+      </c>
+      <c r="P39" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>102</v>
+      </c>
+      <c r="R39" t="s">
+        <v>102</v>
+      </c>
+      <c r="S39" t="s">
+        <v>102</v>
+      </c>
+      <c r="T39" t="s">
+        <v>102</v>
+      </c>
+      <c r="U39" t="s">
+        <v>102</v>
+      </c>
+      <c r="V39" t="s">
+        <v>102</v>
+      </c>
+      <c r="W39" t="s">
+        <v>102</v>
+      </c>
+      <c r="X39" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -2370,14 +4044,71 @@
       <c r="D40" t="s">
         <v>101</v>
       </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
       <c r="G40" t="s">
-        <v>102</v>
-      </c>
-      <c r="P40">
-        <v>6</v>
-      </c>
-      <c r="Y40">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" t="s">
+        <v>102</v>
+      </c>
+      <c r="M40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N40" t="s">
+        <v>102</v>
+      </c>
+      <c r="O40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>102</v>
+      </c>
+      <c r="R40" t="s">
+        <v>102</v>
+      </c>
+      <c r="S40" t="s">
+        <v>102</v>
+      </c>
+      <c r="T40" t="s">
+        <v>102</v>
+      </c>
+      <c r="U40" t="s">
+        <v>102</v>
+      </c>
+      <c r="V40" t="s">
+        <v>102</v>
+      </c>
+      <c r="W40" t="s">
+        <v>102</v>
+      </c>
+      <c r="X40" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -2393,14 +4124,71 @@
       <c r="D41" t="s">
         <v>100</v>
       </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
       <c r="G41" t="s">
-        <v>102</v>
-      </c>
-      <c r="P41">
-        <v>6</v>
-      </c>
-      <c r="Y41">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" t="s">
+        <v>102</v>
+      </c>
+      <c r="N41" t="s">
+        <v>102</v>
+      </c>
+      <c r="O41" t="s">
+        <v>102</v>
+      </c>
+      <c r="P41" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>102</v>
+      </c>
+      <c r="R41" t="s">
+        <v>102</v>
+      </c>
+      <c r="S41" t="s">
+        <v>102</v>
+      </c>
+      <c r="T41" t="s">
+        <v>102</v>
+      </c>
+      <c r="U41" t="s">
+        <v>102</v>
+      </c>
+      <c r="V41" t="s">
+        <v>102</v>
+      </c>
+      <c r="W41" t="s">
+        <v>102</v>
+      </c>
+      <c r="X41" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -2416,14 +4204,71 @@
       <c r="D42" t="s">
         <v>101</v>
       </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
       <c r="G42" t="s">
-        <v>102</v>
-      </c>
-      <c r="P42">
-        <v>6</v>
-      </c>
-      <c r="Y42">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H42" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" t="s">
+        <v>102</v>
+      </c>
+      <c r="K42" t="s">
+        <v>102</v>
+      </c>
+      <c r="L42" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" t="s">
+        <v>102</v>
+      </c>
+      <c r="N42" t="s">
+        <v>102</v>
+      </c>
+      <c r="O42" t="s">
+        <v>102</v>
+      </c>
+      <c r="P42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>102</v>
+      </c>
+      <c r="R42" t="s">
+        <v>102</v>
+      </c>
+      <c r="S42" t="s">
+        <v>102</v>
+      </c>
+      <c r="T42" t="s">
+        <v>102</v>
+      </c>
+      <c r="U42" t="s">
+        <v>102</v>
+      </c>
+      <c r="V42" t="s">
+        <v>102</v>
+      </c>
+      <c r="W42" t="s">
+        <v>102</v>
+      </c>
+      <c r="X42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -2439,17 +4284,71 @@
       <c r="D43" t="s">
         <v>100</v>
       </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
       <c r="G43" t="s">
-        <v>102</v>
-      </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>12</v>
-      </c>
-      <c r="Y43">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" t="s">
+        <v>102</v>
+      </c>
+      <c r="K43" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M43" t="s">
+        <v>102</v>
+      </c>
+      <c r="N43" t="s">
+        <v>102</v>
+      </c>
+      <c r="O43" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>130</v>
+      </c>
+      <c r="R43" t="s">
+        <v>102</v>
+      </c>
+      <c r="S43" t="s">
+        <v>102</v>
+      </c>
+      <c r="T43" t="s">
+        <v>102</v>
+      </c>
+      <c r="U43" t="s">
+        <v>102</v>
+      </c>
+      <c r="V43" t="s">
+        <v>102</v>
+      </c>
+      <c r="W43" t="s">
+        <v>102</v>
+      </c>
+      <c r="X43" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -2465,14 +4364,71 @@
       <c r="D44" t="s">
         <v>100</v>
       </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
       <c r="G44" t="s">
-        <v>102</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Y44">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H44" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" t="s">
+        <v>102</v>
+      </c>
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" t="s">
+        <v>102</v>
+      </c>
+      <c r="M44" t="s">
+        <v>102</v>
+      </c>
+      <c r="N44" t="s">
+        <v>102</v>
+      </c>
+      <c r="O44" t="s">
+        <v>102</v>
+      </c>
+      <c r="P44" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>102</v>
+      </c>
+      <c r="R44" t="s">
+        <v>102</v>
+      </c>
+      <c r="S44" t="s">
+        <v>102</v>
+      </c>
+      <c r="T44" t="s">
+        <v>102</v>
+      </c>
+      <c r="U44" t="s">
+        <v>102</v>
+      </c>
+      <c r="V44" t="s">
+        <v>102</v>
+      </c>
+      <c r="W44" t="s">
+        <v>102</v>
+      </c>
+      <c r="X44" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -2488,7 +4444,70 @@
       <c r="D45" t="s">
         <v>100</v>
       </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
       <c r="G45" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" t="s">
+        <v>102</v>
+      </c>
+      <c r="M45" t="s">
+        <v>102</v>
+      </c>
+      <c r="N45" t="s">
+        <v>102</v>
+      </c>
+      <c r="O45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P45" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>102</v>
+      </c>
+      <c r="R45" t="s">
+        <v>102</v>
+      </c>
+      <c r="S45" t="s">
+        <v>102</v>
+      </c>
+      <c r="T45" t="s">
+        <v>102</v>
+      </c>
+      <c r="U45" t="s">
+        <v>102</v>
+      </c>
+      <c r="V45" t="s">
+        <v>102</v>
+      </c>
+      <c r="W45" t="s">
+        <v>102</v>
+      </c>
+      <c r="X45" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA45" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2505,44 +4524,71 @@
       <c r="D46" t="s">
         <v>100</v>
       </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
       <c r="G46" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46">
-        <v>36</v>
-      </c>
-      <c r="I46">
-        <v>41</v>
-      </c>
-      <c r="J46">
-        <v>12</v>
-      </c>
-      <c r="K46">
-        <v>10</v>
-      </c>
-      <c r="L46">
-        <v>6</v>
-      </c>
-      <c r="M46">
-        <v>5</v>
-      </c>
-      <c r="O46">
-        <v>5</v>
-      </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="S46">
-        <v>5</v>
-      </c>
-      <c r="X46">
-        <v>3</v>
-      </c>
-      <c r="Y46">
-        <v>4</v>
-      </c>
-      <c r="AA46">
-        <v>5</v>
+        <v>114</v>
+      </c>
+      <c r="H46" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" t="s">
+        <v>112</v>
+      </c>
+      <c r="J46" t="s">
+        <v>135</v>
+      </c>
+      <c r="K46" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" t="s">
+        <v>146</v>
+      </c>
+      <c r="M46" t="s">
+        <v>123</v>
+      </c>
+      <c r="N46" t="s">
+        <v>102</v>
+      </c>
+      <c r="O46" t="s">
+        <v>135</v>
+      </c>
+      <c r="P46" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>102</v>
+      </c>
+      <c r="R46" t="s">
+        <v>102</v>
+      </c>
+      <c r="S46" t="s">
+        <v>135</v>
+      </c>
+      <c r="T46" t="s">
+        <v>102</v>
+      </c>
+      <c r="U46" t="s">
+        <v>102</v>
+      </c>
+      <c r="V46" t="s">
+        <v>102</v>
+      </c>
+      <c r="W46" t="s">
+        <v>102</v>
+      </c>
+      <c r="X46" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -2558,14 +4604,71 @@
       <c r="D47" t="s">
         <v>100</v>
       </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
       <c r="G47" t="s">
-        <v>102</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Y47">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" t="s">
+        <v>102</v>
+      </c>
+      <c r="L47" t="s">
+        <v>102</v>
+      </c>
+      <c r="M47" t="s">
+        <v>102</v>
+      </c>
+      <c r="N47" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>102</v>
+      </c>
+      <c r="R47" t="s">
+        <v>102</v>
+      </c>
+      <c r="S47" t="s">
+        <v>102</v>
+      </c>
+      <c r="T47" t="s">
+        <v>102</v>
+      </c>
+      <c r="U47" t="s">
+        <v>102</v>
+      </c>
+      <c r="V47" t="s">
+        <v>102</v>
+      </c>
+      <c r="W47" t="s">
+        <v>102</v>
+      </c>
+      <c r="X47" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -2581,14 +4684,71 @@
       <c r="D48" t="s">
         <v>100</v>
       </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
       <c r="G48" t="s">
-        <v>102</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Y48">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" t="s">
+        <v>102</v>
+      </c>
+      <c r="L48" t="s">
+        <v>102</v>
+      </c>
+      <c r="M48" t="s">
+        <v>102</v>
+      </c>
+      <c r="N48" t="s">
+        <v>102</v>
+      </c>
+      <c r="O48" t="s">
+        <v>102</v>
+      </c>
+      <c r="P48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>102</v>
+      </c>
+      <c r="R48" t="s">
+        <v>102</v>
+      </c>
+      <c r="S48" t="s">
+        <v>102</v>
+      </c>
+      <c r="T48" t="s">
+        <v>102</v>
+      </c>
+      <c r="U48" t="s">
+        <v>102</v>
+      </c>
+      <c r="V48" t="s">
+        <v>102</v>
+      </c>
+      <c r="W48" t="s">
+        <v>102</v>
+      </c>
+      <c r="X48" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -2604,7 +4764,70 @@
       <c r="D49" t="s">
         <v>101</v>
       </c>
+      <c r="E49" t="s">
+        <v>102</v>
+      </c>
       <c r="G49" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49" t="s">
+        <v>102</v>
+      </c>
+      <c r="M49" t="s">
+        <v>102</v>
+      </c>
+      <c r="N49" t="s">
+        <v>102</v>
+      </c>
+      <c r="O49" t="s">
+        <v>102</v>
+      </c>
+      <c r="P49" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>102</v>
+      </c>
+      <c r="R49" t="s">
+        <v>102</v>
+      </c>
+      <c r="S49" t="s">
+        <v>102</v>
+      </c>
+      <c r="T49" t="s">
+        <v>102</v>
+      </c>
+      <c r="U49" t="s">
+        <v>102</v>
+      </c>
+      <c r="V49" t="s">
+        <v>102</v>
+      </c>
+      <c r="W49" t="s">
+        <v>102</v>
+      </c>
+      <c r="X49" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA49" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2621,14 +4844,71 @@
       <c r="D50" t="s">
         <v>101</v>
       </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
       <c r="G50" t="s">
-        <v>102</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="Y50">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H50" t="s">
+        <v>102</v>
+      </c>
+      <c r="I50" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" t="s">
+        <v>102</v>
+      </c>
+      <c r="L50" t="s">
+        <v>102</v>
+      </c>
+      <c r="M50" t="s">
+        <v>102</v>
+      </c>
+      <c r="N50" t="s">
+        <v>102</v>
+      </c>
+      <c r="O50" t="s">
+        <v>102</v>
+      </c>
+      <c r="P50" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>102</v>
+      </c>
+      <c r="R50" t="s">
+        <v>102</v>
+      </c>
+      <c r="S50" t="s">
+        <v>102</v>
+      </c>
+      <c r="T50" t="s">
+        <v>102</v>
+      </c>
+      <c r="U50" t="s">
+        <v>102</v>
+      </c>
+      <c r="V50" t="s">
+        <v>102</v>
+      </c>
+      <c r="W50" t="s">
+        <v>102</v>
+      </c>
+      <c r="X50" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -2644,14 +4924,71 @@
       <c r="D51" t="s">
         <v>100</v>
       </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
       <c r="G51" t="s">
-        <v>102</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Y51">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" t="s">
+        <v>102</v>
+      </c>
+      <c r="L51" t="s">
+        <v>102</v>
+      </c>
+      <c r="M51" t="s">
+        <v>102</v>
+      </c>
+      <c r="N51" t="s">
+        <v>102</v>
+      </c>
+      <c r="O51" t="s">
+        <v>102</v>
+      </c>
+      <c r="P51" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>102</v>
+      </c>
+      <c r="R51" t="s">
+        <v>102</v>
+      </c>
+      <c r="S51" t="s">
+        <v>102</v>
+      </c>
+      <c r="T51" t="s">
+        <v>102</v>
+      </c>
+      <c r="U51" t="s">
+        <v>102</v>
+      </c>
+      <c r="V51" t="s">
+        <v>102</v>
+      </c>
+      <c r="W51" t="s">
+        <v>102</v>
+      </c>
+      <c r="X51" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -2667,7 +5004,70 @@
       <c r="D52" t="s">
         <v>100</v>
       </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
       <c r="G52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" t="s">
+        <v>102</v>
+      </c>
+      <c r="L52" t="s">
+        <v>102</v>
+      </c>
+      <c r="M52" t="s">
+        <v>102</v>
+      </c>
+      <c r="N52" t="s">
+        <v>102</v>
+      </c>
+      <c r="O52" t="s">
+        <v>102</v>
+      </c>
+      <c r="P52" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>102</v>
+      </c>
+      <c r="R52" t="s">
+        <v>102</v>
+      </c>
+      <c r="S52" t="s">
+        <v>102</v>
+      </c>
+      <c r="T52" t="s">
+        <v>102</v>
+      </c>
+      <c r="U52" t="s">
+        <v>102</v>
+      </c>
+      <c r="V52" t="s">
+        <v>102</v>
+      </c>
+      <c r="W52" t="s">
+        <v>102</v>
+      </c>
+      <c r="X52" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA52" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2684,14 +5084,71 @@
       <c r="D53" t="s">
         <v>100</v>
       </c>
+      <c r="E53" t="s">
+        <v>102</v>
+      </c>
       <c r="G53" t="s">
-        <v>102</v>
-      </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="Y53">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H53" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" t="s">
+        <v>102</v>
+      </c>
+      <c r="L53" t="s">
+        <v>102</v>
+      </c>
+      <c r="M53" t="s">
+        <v>102</v>
+      </c>
+      <c r="N53" t="s">
+        <v>102</v>
+      </c>
+      <c r="O53" t="s">
+        <v>102</v>
+      </c>
+      <c r="P53" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>102</v>
+      </c>
+      <c r="R53" t="s">
+        <v>102</v>
+      </c>
+      <c r="S53" t="s">
+        <v>102</v>
+      </c>
+      <c r="T53" t="s">
+        <v>102</v>
+      </c>
+      <c r="U53" t="s">
+        <v>102</v>
+      </c>
+      <c r="V53" t="s">
+        <v>102</v>
+      </c>
+      <c r="W53" t="s">
+        <v>102</v>
+      </c>
+      <c r="X53" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -2707,38 +5164,71 @@
       <c r="D54" t="s">
         <v>101</v>
       </c>
+      <c r="E54" t="s">
+        <v>102</v>
+      </c>
       <c r="G54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54">
-        <v>16</v>
-      </c>
-      <c r="I54">
-        <v>22</v>
-      </c>
-      <c r="J54">
-        <v>6</v>
-      </c>
-      <c r="K54">
-        <v>5</v>
-      </c>
-      <c r="L54">
-        <v>6</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>6</v>
-      </c>
-      <c r="S54">
-        <v>5</v>
-      </c>
-      <c r="V54">
-        <v>3</v>
-      </c>
-      <c r="Y54">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H54" t="s">
+        <v>129</v>
+      </c>
+      <c r="I54" t="s">
+        <v>142</v>
+      </c>
+      <c r="J54" t="s">
+        <v>138</v>
+      </c>
+      <c r="K54" t="s">
+        <v>146</v>
+      </c>
+      <c r="L54" t="s">
+        <v>146</v>
+      </c>
+      <c r="M54" t="s">
+        <v>135</v>
+      </c>
+      <c r="N54" t="s">
+        <v>102</v>
+      </c>
+      <c r="O54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P54" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>102</v>
+      </c>
+      <c r="R54" t="s">
+        <v>102</v>
+      </c>
+      <c r="S54" t="s">
+        <v>135</v>
+      </c>
+      <c r="T54" t="s">
+        <v>102</v>
+      </c>
+      <c r="U54" t="s">
+        <v>102</v>
+      </c>
+      <c r="V54" t="s">
+        <v>139</v>
+      </c>
+      <c r="W54" t="s">
+        <v>102</v>
+      </c>
+      <c r="X54" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -2754,7 +5244,70 @@
       <c r="D55" t="s">
         <v>100</v>
       </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
       <c r="G55" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" t="s">
+        <v>102</v>
+      </c>
+      <c r="J55" t="s">
+        <v>102</v>
+      </c>
+      <c r="K55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L55" t="s">
+        <v>102</v>
+      </c>
+      <c r="M55" t="s">
+        <v>102</v>
+      </c>
+      <c r="N55" t="s">
+        <v>102</v>
+      </c>
+      <c r="O55" t="s">
+        <v>102</v>
+      </c>
+      <c r="P55" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>102</v>
+      </c>
+      <c r="R55" t="s">
+        <v>102</v>
+      </c>
+      <c r="S55" t="s">
+        <v>102</v>
+      </c>
+      <c r="T55" t="s">
+        <v>102</v>
+      </c>
+      <c r="U55" t="s">
+        <v>102</v>
+      </c>
+      <c r="V55" t="s">
+        <v>102</v>
+      </c>
+      <c r="W55" t="s">
+        <v>102</v>
+      </c>
+      <c r="X55" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA55" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2771,7 +5324,70 @@
       <c r="D56" t="s">
         <v>100</v>
       </c>
+      <c r="E56" t="s">
+        <v>102</v>
+      </c>
       <c r="G56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" t="s">
+        <v>102</v>
+      </c>
+      <c r="J56" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" t="s">
+        <v>102</v>
+      </c>
+      <c r="M56" t="s">
+        <v>102</v>
+      </c>
+      <c r="N56" t="s">
+        <v>102</v>
+      </c>
+      <c r="O56" t="s">
+        <v>102</v>
+      </c>
+      <c r="P56" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>102</v>
+      </c>
+      <c r="R56" t="s">
+        <v>102</v>
+      </c>
+      <c r="S56" t="s">
+        <v>102</v>
+      </c>
+      <c r="T56" t="s">
+        <v>102</v>
+      </c>
+      <c r="U56" t="s">
+        <v>102</v>
+      </c>
+      <c r="V56" t="s">
+        <v>102</v>
+      </c>
+      <c r="W56" t="s">
+        <v>102</v>
+      </c>
+      <c r="X56" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA56" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2788,17 +5404,71 @@
       <c r="D57" t="s">
         <v>100</v>
       </c>
+      <c r="E57" t="s">
+        <v>102</v>
+      </c>
       <c r="G57" t="s">
-        <v>102</v>
-      </c>
-      <c r="I57">
-        <v>14</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="Y57">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H57" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" t="s">
+        <v>140</v>
+      </c>
+      <c r="J57" t="s">
+        <v>102</v>
+      </c>
+      <c r="K57" t="s">
+        <v>102</v>
+      </c>
+      <c r="L57" t="s">
+        <v>102</v>
+      </c>
+      <c r="M57" t="s">
+        <v>102</v>
+      </c>
+      <c r="N57" t="s">
+        <v>102</v>
+      </c>
+      <c r="O57" t="s">
+        <v>102</v>
+      </c>
+      <c r="P57" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>102</v>
+      </c>
+      <c r="R57" t="s">
+        <v>102</v>
+      </c>
+      <c r="S57" t="s">
+        <v>102</v>
+      </c>
+      <c r="T57" t="s">
+        <v>102</v>
+      </c>
+      <c r="U57" t="s">
+        <v>102</v>
+      </c>
+      <c r="V57" t="s">
+        <v>102</v>
+      </c>
+      <c r="W57" t="s">
+        <v>102</v>
+      </c>
+      <c r="X57" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -2814,14 +5484,71 @@
       <c r="D58" t="s">
         <v>100</v>
       </c>
+      <c r="E58" t="s">
+        <v>102</v>
+      </c>
       <c r="G58" t="s">
-        <v>102</v>
-      </c>
-      <c r="P58">
-        <v>1</v>
-      </c>
-      <c r="Y58">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H58" t="s">
+        <v>102</v>
+      </c>
+      <c r="I58" t="s">
+        <v>102</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+      <c r="K58" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" t="s">
+        <v>102</v>
+      </c>
+      <c r="M58" t="s">
+        <v>102</v>
+      </c>
+      <c r="N58" t="s">
+        <v>102</v>
+      </c>
+      <c r="O58" t="s">
+        <v>102</v>
+      </c>
+      <c r="P58" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>102</v>
+      </c>
+      <c r="R58" t="s">
+        <v>102</v>
+      </c>
+      <c r="S58" t="s">
+        <v>102</v>
+      </c>
+      <c r="T58" t="s">
+        <v>102</v>
+      </c>
+      <c r="U58" t="s">
+        <v>102</v>
+      </c>
+      <c r="V58" t="s">
+        <v>102</v>
+      </c>
+      <c r="W58" t="s">
+        <v>102</v>
+      </c>
+      <c r="X58" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -2837,14 +5564,71 @@
       <c r="D59" t="s">
         <v>100</v>
       </c>
+      <c r="E59" t="s">
+        <v>102</v>
+      </c>
       <c r="G59" t="s">
-        <v>102</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="Y59">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H59" t="s">
+        <v>102</v>
+      </c>
+      <c r="I59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J59" t="s">
+        <v>102</v>
+      </c>
+      <c r="K59" t="s">
+        <v>102</v>
+      </c>
+      <c r="L59" t="s">
+        <v>102</v>
+      </c>
+      <c r="M59" t="s">
+        <v>102</v>
+      </c>
+      <c r="N59" t="s">
+        <v>102</v>
+      </c>
+      <c r="O59" t="s">
+        <v>102</v>
+      </c>
+      <c r="P59" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>102</v>
+      </c>
+      <c r="R59" t="s">
+        <v>102</v>
+      </c>
+      <c r="S59" t="s">
+        <v>102</v>
+      </c>
+      <c r="T59" t="s">
+        <v>102</v>
+      </c>
+      <c r="U59" t="s">
+        <v>102</v>
+      </c>
+      <c r="V59" t="s">
+        <v>102</v>
+      </c>
+      <c r="W59" t="s">
+        <v>102</v>
+      </c>
+      <c r="X59" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -2860,11 +5644,71 @@
       <c r="D60" t="s">
         <v>100</v>
       </c>
+      <c r="E60" t="s">
+        <v>102</v>
+      </c>
       <c r="G60" t="s">
-        <v>102</v>
-      </c>
-      <c r="I60">
-        <v>11</v>
+        <v>114</v>
+      </c>
+      <c r="H60" t="s">
+        <v>102</v>
+      </c>
+      <c r="I60" t="s">
+        <v>127</v>
+      </c>
+      <c r="J60" t="s">
+        <v>102</v>
+      </c>
+      <c r="K60" t="s">
+        <v>102</v>
+      </c>
+      <c r="L60" t="s">
+        <v>102</v>
+      </c>
+      <c r="M60" t="s">
+        <v>102</v>
+      </c>
+      <c r="N60" t="s">
+        <v>102</v>
+      </c>
+      <c r="O60" t="s">
+        <v>102</v>
+      </c>
+      <c r="P60" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>102</v>
+      </c>
+      <c r="R60" t="s">
+        <v>102</v>
+      </c>
+      <c r="S60" t="s">
+        <v>102</v>
+      </c>
+      <c r="T60" t="s">
+        <v>102</v>
+      </c>
+      <c r="U60" t="s">
+        <v>102</v>
+      </c>
+      <c r="V60" t="s">
+        <v>102</v>
+      </c>
+      <c r="W60" t="s">
+        <v>102</v>
+      </c>
+      <c r="X60" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -2880,35 +5724,71 @@
       <c r="D61" t="s">
         <v>100</v>
       </c>
+      <c r="E61" t="s">
+        <v>102</v>
+      </c>
       <c r="G61" t="s">
-        <v>102</v>
-      </c>
-      <c r="I61">
-        <v>29</v>
-      </c>
-      <c r="J61">
-        <v>5</v>
-      </c>
-      <c r="L61">
-        <v>6</v>
-      </c>
-      <c r="M61">
-        <v>11</v>
-      </c>
-      <c r="N61">
-        <v>4</v>
-      </c>
-      <c r="O61">
-        <v>2</v>
-      </c>
-      <c r="T61">
-        <v>6</v>
-      </c>
-      <c r="Z61">
-        <v>4</v>
-      </c>
-      <c r="AA61">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="H61" t="s">
+        <v>102</v>
+      </c>
+      <c r="I61" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" t="s">
+        <v>135</v>
+      </c>
+      <c r="L61" t="s">
+        <v>146</v>
+      </c>
+      <c r="M61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N61" t="s">
+        <v>147</v>
+      </c>
+      <c r="O61" t="s">
+        <v>148</v>
+      </c>
+      <c r="P61" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>102</v>
+      </c>
+      <c r="R61" t="s">
+        <v>102</v>
+      </c>
+      <c r="S61" t="s">
+        <v>102</v>
+      </c>
+      <c r="T61" t="s">
+        <v>146</v>
+      </c>
+      <c r="U61" t="s">
+        <v>102</v>
+      </c>
+      <c r="V61" t="s">
+        <v>102</v>
+      </c>
+      <c r="W61" t="s">
+        <v>102</v>
+      </c>
+      <c r="X61" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -2924,14 +5804,71 @@
       <c r="D62" t="s">
         <v>100</v>
       </c>
+      <c r="E62" t="s">
+        <v>102</v>
+      </c>
       <c r="G62" t="s">
-        <v>102</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Y62">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="H62" t="s">
+        <v>102</v>
+      </c>
+      <c r="I62" t="s">
+        <v>102</v>
+      </c>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+      <c r="K62" t="s">
+        <v>102</v>
+      </c>
+      <c r="L62" t="s">
+        <v>102</v>
+      </c>
+      <c r="M62" t="s">
+        <v>102</v>
+      </c>
+      <c r="N62" t="s">
+        <v>102</v>
+      </c>
+      <c r="O62" t="s">
+        <v>102</v>
+      </c>
+      <c r="P62" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>102</v>
+      </c>
+      <c r="R62" t="s">
+        <v>102</v>
+      </c>
+      <c r="S62" t="s">
+        <v>102</v>
+      </c>
+      <c r="T62" t="s">
+        <v>102</v>
+      </c>
+      <c r="U62" t="s">
+        <v>102</v>
+      </c>
+      <c r="V62" t="s">
+        <v>102</v>
+      </c>
+      <c r="W62" t="s">
+        <v>102</v>
+      </c>
+      <c r="X62" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -2947,7 +5884,70 @@
       <c r="D63" t="s">
         <v>100</v>
       </c>
+      <c r="E63" t="s">
+        <v>102</v>
+      </c>
       <c r="G63" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" t="s">
+        <v>102</v>
+      </c>
+      <c r="I63" t="s">
+        <v>102</v>
+      </c>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+      <c r="K63" t="s">
+        <v>102</v>
+      </c>
+      <c r="L63" t="s">
+        <v>102</v>
+      </c>
+      <c r="M63" t="s">
+        <v>102</v>
+      </c>
+      <c r="N63" t="s">
+        <v>102</v>
+      </c>
+      <c r="O63" t="s">
+        <v>102</v>
+      </c>
+      <c r="P63" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>102</v>
+      </c>
+      <c r="R63" t="s">
+        <v>102</v>
+      </c>
+      <c r="S63" t="s">
+        <v>102</v>
+      </c>
+      <c r="T63" t="s">
+        <v>102</v>
+      </c>
+      <c r="U63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V63" t="s">
+        <v>102</v>
+      </c>
+      <c r="W63" t="s">
+        <v>102</v>
+      </c>
+      <c r="X63" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA63" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2964,32 +5964,71 @@
       <c r="D64" t="s">
         <v>101</v>
       </c>
+      <c r="E64" t="s">
+        <v>102</v>
+      </c>
       <c r="G64" t="s">
-        <v>102</v>
-      </c>
-      <c r="H64">
-        <v>11</v>
-      </c>
-      <c r="I64">
-        <v>35</v>
-      </c>
-      <c r="P64">
-        <v>3</v>
-      </c>
-      <c r="R64">
-        <v>12</v>
-      </c>
-      <c r="T64">
-        <v>6</v>
-      </c>
-      <c r="U64">
-        <v>6</v>
-      </c>
-      <c r="X64">
-        <v>3</v>
-      </c>
-      <c r="Y64">
-        <v>3</v>
+        <v>114</v>
+      </c>
+      <c r="H64" t="s">
+        <v>127</v>
+      </c>
+      <c r="I64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+      <c r="K64" t="s">
+        <v>102</v>
+      </c>
+      <c r="L64" t="s">
+        <v>102</v>
+      </c>
+      <c r="M64" t="s">
+        <v>102</v>
+      </c>
+      <c r="N64" t="s">
+        <v>102</v>
+      </c>
+      <c r="O64" t="s">
+        <v>102</v>
+      </c>
+      <c r="P64" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>102</v>
+      </c>
+      <c r="R64" t="s">
+        <v>130</v>
+      </c>
+      <c r="S64" t="s">
+        <v>102</v>
+      </c>
+      <c r="T64" t="s">
+        <v>146</v>
+      </c>
+      <c r="U64" t="s">
+        <v>146</v>
+      </c>
+      <c r="V64" t="s">
+        <v>102</v>
+      </c>
+      <c r="W64" t="s">
+        <v>102</v>
+      </c>
+      <c r="X64" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -3005,20 +6044,71 @@
       <c r="D65" t="s">
         <v>100</v>
       </c>
+      <c r="E65" t="s">
+        <v>102</v>
+      </c>
       <c r="G65" t="s">
-        <v>102</v>
-      </c>
-      <c r="N65">
-        <v>4</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-      <c r="Y65">
-        <v>1</v>
-      </c>
-      <c r="Z65">
-        <v>4</v>
+        <v>114</v>
+      </c>
+      <c r="H65" t="s">
+        <v>102</v>
+      </c>
+      <c r="I65" t="s">
+        <v>102</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+      <c r="K65" t="s">
+        <v>102</v>
+      </c>
+      <c r="L65" t="s">
+        <v>102</v>
+      </c>
+      <c r="M65" t="s">
+        <v>102</v>
+      </c>
+      <c r="N65" t="s">
+        <v>147</v>
+      </c>
+      <c r="O65" t="s">
+        <v>102</v>
+      </c>
+      <c r="P65" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>102</v>
+      </c>
+      <c r="R65" t="s">
+        <v>102</v>
+      </c>
+      <c r="S65" t="s">
+        <v>102</v>
+      </c>
+      <c r="T65" t="s">
+        <v>102</v>
+      </c>
+      <c r="U65" t="s">
+        <v>102</v>
+      </c>
+      <c r="V65" t="s">
+        <v>102</v>
+      </c>
+      <c r="W65" t="s">
+        <v>102</v>
+      </c>
+      <c r="X65" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -3034,20 +6124,71 @@
       <c r="D66" t="s">
         <v>101</v>
       </c>
+      <c r="E66" t="s">
+        <v>102</v>
+      </c>
       <c r="G66" t="s">
-        <v>102</v>
-      </c>
-      <c r="I66">
-        <v>8</v>
-      </c>
-      <c r="K66">
-        <v>3</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="U66">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+      <c r="K66" t="s">
+        <v>102</v>
+      </c>
+      <c r="L66" t="s">
+        <v>138</v>
+      </c>
+      <c r="M66" t="s">
+        <v>139</v>
+      </c>
+      <c r="N66" t="s">
+        <v>102</v>
+      </c>
+      <c r="O66" t="s">
+        <v>102</v>
+      </c>
+      <c r="P66" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>102</v>
+      </c>
+      <c r="R66" t="s">
+        <v>102</v>
+      </c>
+      <c r="S66" t="s">
+        <v>102</v>
+      </c>
+      <c r="T66" t="s">
+        <v>102</v>
+      </c>
+      <c r="U66" t="s">
+        <v>146</v>
+      </c>
+      <c r="V66" t="s">
+        <v>102</v>
+      </c>
+      <c r="W66" t="s">
+        <v>102</v>
+      </c>
+      <c r="X66" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -3063,29 +6204,71 @@
       <c r="D67" t="s">
         <v>100</v>
       </c>
+      <c r="E67" t="s">
+        <v>102</v>
+      </c>
       <c r="G67" t="s">
-        <v>102</v>
-      </c>
-      <c r="H67">
-        <v>20</v>
-      </c>
-      <c r="I67">
-        <v>41</v>
-      </c>
-      <c r="O67">
-        <v>6</v>
-      </c>
-      <c r="P67">
-        <v>6</v>
-      </c>
-      <c r="V67">
-        <v>3</v>
-      </c>
-      <c r="Y67">
-        <v>6</v>
-      </c>
-      <c r="AA67">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" t="s">
+        <v>112</v>
+      </c>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+      <c r="K67" t="s">
+        <v>102</v>
+      </c>
+      <c r="L67" t="s">
+        <v>102</v>
+      </c>
+      <c r="M67" t="s">
+        <v>102</v>
+      </c>
+      <c r="N67" t="s">
+        <v>102</v>
+      </c>
+      <c r="O67" t="s">
+        <v>146</v>
+      </c>
+      <c r="P67" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>102</v>
+      </c>
+      <c r="R67" t="s">
+        <v>102</v>
+      </c>
+      <c r="S67" t="s">
+        <v>102</v>
+      </c>
+      <c r="T67" t="s">
+        <v>102</v>
+      </c>
+      <c r="U67" t="s">
+        <v>102</v>
+      </c>
+      <c r="V67" t="s">
+        <v>139</v>
+      </c>
+      <c r="W67" t="s">
+        <v>102</v>
+      </c>
+      <c r="X67" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -3101,11 +6284,71 @@
       <c r="D68" t="s">
         <v>100</v>
       </c>
+      <c r="E68" t="s">
+        <v>102</v>
+      </c>
       <c r="G68" t="s">
-        <v>102</v>
-      </c>
-      <c r="I68">
-        <v>14</v>
+        <v>114</v>
+      </c>
+      <c r="H68" t="s">
+        <v>102</v>
+      </c>
+      <c r="I68" t="s">
+        <v>140</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+      <c r="K68" t="s">
+        <v>102</v>
+      </c>
+      <c r="L68" t="s">
+        <v>102</v>
+      </c>
+      <c r="M68" t="s">
+        <v>102</v>
+      </c>
+      <c r="N68" t="s">
+        <v>102</v>
+      </c>
+      <c r="O68" t="s">
+        <v>102</v>
+      </c>
+      <c r="P68" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>102</v>
+      </c>
+      <c r="R68" t="s">
+        <v>102</v>
+      </c>
+      <c r="S68" t="s">
+        <v>102</v>
+      </c>
+      <c r="T68" t="s">
+        <v>102</v>
+      </c>
+      <c r="U68" t="s">
+        <v>102</v>
+      </c>
+      <c r="V68" t="s">
+        <v>102</v>
+      </c>
+      <c r="W68" t="s">
+        <v>102</v>
+      </c>
+      <c r="X68" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -3121,26 +6364,71 @@
       <c r="D69" t="s">
         <v>100</v>
       </c>
+      <c r="E69" t="s">
+        <v>102</v>
+      </c>
       <c r="G69" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69">
-        <v>8</v>
-      </c>
-      <c r="J69">
-        <v>5</v>
-      </c>
-      <c r="K69">
-        <v>5</v>
-      </c>
-      <c r="L69">
-        <v>6</v>
-      </c>
-      <c r="M69">
-        <v>6</v>
-      </c>
-      <c r="U69">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="H69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J69" t="s">
+        <v>146</v>
+      </c>
+      <c r="K69" t="s">
+        <v>135</v>
+      </c>
+      <c r="L69" t="s">
+        <v>146</v>
+      </c>
+      <c r="M69" t="s">
+        <v>135</v>
+      </c>
+      <c r="N69" t="s">
+        <v>102</v>
+      </c>
+      <c r="O69" t="s">
+        <v>102</v>
+      </c>
+      <c r="P69" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>102</v>
+      </c>
+      <c r="R69" t="s">
+        <v>102</v>
+      </c>
+      <c r="S69" t="s">
+        <v>102</v>
+      </c>
+      <c r="T69" t="s">
+        <v>102</v>
+      </c>
+      <c r="U69" t="s">
+        <v>146</v>
+      </c>
+      <c r="V69" t="s">
+        <v>102</v>
+      </c>
+      <c r="W69" t="s">
+        <v>102</v>
+      </c>
+      <c r="X69" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -3156,38 +6444,71 @@
       <c r="D70" t="s">
         <v>100</v>
       </c>
+      <c r="E70" t="s">
+        <v>102</v>
+      </c>
       <c r="G70" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70">
-        <v>12</v>
-      </c>
-      <c r="I70">
-        <v>38</v>
-      </c>
-      <c r="J70">
-        <v>5</v>
-      </c>
-      <c r="O70">
-        <v>11</v>
-      </c>
-      <c r="P70">
-        <v>18</v>
-      </c>
-      <c r="U70">
-        <v>6</v>
-      </c>
-      <c r="V70">
-        <v>6</v>
-      </c>
-      <c r="X70">
-        <v>6</v>
-      </c>
-      <c r="Y70">
-        <v>18</v>
-      </c>
-      <c r="AA70">
-        <v>11</v>
+        <v>114</v>
+      </c>
+      <c r="H70" t="s">
+        <v>130</v>
+      </c>
+      <c r="I70" t="s">
+        <v>145</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+      <c r="K70" t="s">
+        <v>135</v>
+      </c>
+      <c r="L70" t="s">
+        <v>102</v>
+      </c>
+      <c r="M70" t="s">
+        <v>102</v>
+      </c>
+      <c r="N70" t="s">
+        <v>102</v>
+      </c>
+      <c r="O70" t="s">
+        <v>127</v>
+      </c>
+      <c r="P70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>102</v>
+      </c>
+      <c r="R70" t="s">
+        <v>102</v>
+      </c>
+      <c r="S70" t="s">
+        <v>102</v>
+      </c>
+      <c r="T70" t="s">
+        <v>102</v>
+      </c>
+      <c r="U70" t="s">
+        <v>146</v>
+      </c>
+      <c r="V70" t="s">
+        <v>146</v>
+      </c>
+      <c r="W70" t="s">
+        <v>102</v>
+      </c>
+      <c r="X70" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -3203,7 +6524,70 @@
       <c r="D71" t="s">
         <v>100</v>
       </c>
+      <c r="E71" t="s">
+        <v>102</v>
+      </c>
       <c r="G71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H71" t="s">
+        <v>102</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+      <c r="K71" t="s">
+        <v>102</v>
+      </c>
+      <c r="L71" t="s">
+        <v>102</v>
+      </c>
+      <c r="M71" t="s">
+        <v>102</v>
+      </c>
+      <c r="N71" t="s">
+        <v>102</v>
+      </c>
+      <c r="O71" t="s">
+        <v>102</v>
+      </c>
+      <c r="P71" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>102</v>
+      </c>
+      <c r="R71" t="s">
+        <v>102</v>
+      </c>
+      <c r="S71" t="s">
+        <v>102</v>
+      </c>
+      <c r="T71" t="s">
+        <v>102</v>
+      </c>
+      <c r="U71" t="s">
+        <v>102</v>
+      </c>
+      <c r="V71" t="s">
+        <v>102</v>
+      </c>
+      <c r="W71" t="s">
+        <v>102</v>
+      </c>
+      <c r="X71" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA71" t="s">
         <v>102</v>
       </c>
     </row>

--- a/output/report.xlsx
+++ b/output/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="148">
   <si>
     <t>Cell_Type</t>
   </si>
@@ -322,7 +322,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>&lt;NA&gt;</t>
+    <t>NA</t>
   </si>
   <si>
     <t>45</t>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>47</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Severe</t>
@@ -924,7 +921,7 @@
         <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
         <v>102</v>
@@ -945,7 +942,7 @@
         <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O2" t="s">
         <v>102</v>
@@ -954,7 +951,7 @@
         <v>102</v>
       </c>
       <c r="Q2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R2" t="s">
         <v>102</v>
@@ -981,7 +978,7 @@
         <v>102</v>
       </c>
       <c r="Z2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA2" t="s">
         <v>102</v>
@@ -1004,7 +1001,7 @@
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
         <v>102</v>
@@ -1031,7 +1028,7 @@
         <v>102</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q3" t="s">
         <v>102</v>
@@ -1058,7 +1055,7 @@
         <v>102</v>
       </c>
       <c r="Y3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z3" t="s">
         <v>102</v>
@@ -1087,34 +1084,34 @@
         <v>129.4299011230469</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N4" t="s">
         <v>102</v>
       </c>
       <c r="O4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q4" t="s">
         <v>102</v>
@@ -1123,7 +1120,7 @@
         <v>102</v>
       </c>
       <c r="S4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T4" t="s">
         <v>102</v>
@@ -1132,7 +1129,7 @@
         <v>102</v>
       </c>
       <c r="V4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W4" t="s">
         <v>102</v>
@@ -1141,13 +1138,13 @@
         <v>102</v>
       </c>
       <c r="Y4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z4" t="s">
         <v>102</v>
       </c>
       <c r="AA4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1167,7 +1164,7 @@
         <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
         <v>102</v>
@@ -1247,7 +1244,7 @@
         <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H6" t="s">
         <v>102</v>
@@ -1256,16 +1253,16 @@
         <v>104</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N6" t="s">
         <v>102</v>
@@ -1274,19 +1271,19 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q6" t="s">
         <v>102</v>
       </c>
       <c r="R6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U6" t="s">
         <v>102</v>
@@ -1298,10 +1295,10 @@
         <v>102</v>
       </c>
       <c r="X6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z6" t="s">
         <v>102</v>
@@ -1327,67 +1324,67 @@
         <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
         <v>102</v>
       </c>
       <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" t="s">
         <v>132</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Q7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" t="s">
         <v>134</v>
       </c>
-      <c r="K7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
+        <v>145</v>
+      </c>
+      <c r="U7" t="s">
+        <v>102</v>
+      </c>
+      <c r="V7" t="s">
+        <v>145</v>
+      </c>
+      <c r="W7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y7" t="s">
         <v>132</v>
       </c>
-      <c r="N7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>102</v>
-      </c>
-      <c r="R7" t="s">
-        <v>146</v>
-      </c>
-      <c r="S7" t="s">
-        <v>135</v>
-      </c>
-      <c r="T7" t="s">
-        <v>146</v>
-      </c>
-      <c r="U7" t="s">
-        <v>102</v>
-      </c>
-      <c r="V7" t="s">
-        <v>146</v>
-      </c>
-      <c r="W7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>133</v>
-      </c>
       <c r="Z7" t="s">
         <v>102</v>
       </c>
       <c r="AA7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1410,7 +1407,7 @@
         <v>118.6440963745117</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
         <v>102</v>
@@ -1437,7 +1434,7 @@
         <v>102</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q8" t="s">
         <v>102</v>
@@ -1464,7 +1461,7 @@
         <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z8" t="s">
         <v>102</v>
@@ -1493,34 +1490,34 @@
         <v>140.5238952636719</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" t="s">
         <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
         <v>147</v>
       </c>
-      <c r="L9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M9" t="s">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>148</v>
-      </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q9" t="s">
         <v>102</v>
@@ -1535,10 +1532,10 @@
         <v>102</v>
       </c>
       <c r="U9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W9" t="s">
         <v>102</v>
@@ -1547,13 +1544,13 @@
         <v>102</v>
       </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s">
         <v>102</v>
       </c>
       <c r="AA9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1576,7 +1573,7 @@
         <v>110.0154037475586</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
         <v>102</v>
@@ -1600,10 +1597,10 @@
         <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q10" t="s">
         <v>102</v>
@@ -1618,7 +1615,7 @@
         <v>102</v>
       </c>
       <c r="U10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V10" t="s">
         <v>102</v>
@@ -1630,13 +1627,13 @@
         <v>102</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z10" t="s">
         <v>102</v>
       </c>
       <c r="AA10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1659,7 +1656,7 @@
         <v>130.66259765625</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
         <v>102</v>
@@ -1686,13 +1683,13 @@
         <v>102</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q11" t="s">
         <v>102</v>
       </c>
       <c r="R11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S11" t="s">
         <v>102</v>
@@ -1713,7 +1710,7 @@
         <v>102</v>
       </c>
       <c r="Y11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z11" t="s">
         <v>102</v>
@@ -1742,7 +1739,7 @@
         <v>100.1540985107422</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
         <v>102</v>
@@ -1751,58 +1748,58 @@
         <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
         <v>138</v>
       </c>
-      <c r="O12" t="s">
-        <v>139</v>
-      </c>
       <c r="P12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" t="s">
+        <v>102</v>
+      </c>
+      <c r="S12" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U12" t="s">
+        <v>102</v>
+      </c>
+      <c r="V12" t="s">
+        <v>102</v>
+      </c>
+      <c r="W12" t="s">
+        <v>102</v>
+      </c>
+      <c r="X12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA12" t="s">
         <v>138</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>102</v>
-      </c>
-      <c r="R12" t="s">
-        <v>102</v>
-      </c>
-      <c r="S12" t="s">
-        <v>102</v>
-      </c>
-      <c r="T12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U12" t="s">
-        <v>102</v>
-      </c>
-      <c r="V12" t="s">
-        <v>102</v>
-      </c>
-      <c r="W12" t="s">
-        <v>102</v>
-      </c>
-      <c r="X12" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1825,10 +1822,10 @@
         <v>129.4299011230469</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
         <v>102</v>
@@ -1849,10 +1846,10 @@
         <v>102</v>
       </c>
       <c r="O13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q13" t="s">
         <v>102</v>
@@ -1873,19 +1870,19 @@
         <v>102</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
         <v>102</v>
       </c>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z13" t="s">
         <v>102</v>
       </c>
       <c r="AA13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1908,25 +1905,25 @@
         <v>125.8860015869141</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
         <v>102</v>
       </c>
       <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
         <v>134</v>
       </c>
-      <c r="J14" t="s">
-        <v>138</v>
-      </c>
-      <c r="K14" t="s">
-        <v>135</v>
-      </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s">
         <v>102</v>
@@ -1935,13 +1932,13 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q14" t="s">
         <v>102</v>
       </c>
       <c r="R14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S14" t="s">
         <v>102</v>
@@ -1962,7 +1959,7 @@
         <v>102</v>
       </c>
       <c r="Y14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z14" t="s">
         <v>102</v>
@@ -1991,26 +1988,26 @@
         <v>131.7411041259766</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" t="s">
         <v>102</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="s">
         <v>146</v>
       </c>
-      <c r="L15" t="s">
-        <v>148</v>
-      </c>
-      <c r="M15" t="s">
-        <v>147</v>
-      </c>
       <c r="N15" t="s">
         <v>102</v>
       </c>
@@ -2018,7 +2015,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q15" t="s">
         <v>102</v>
@@ -2033,7 +2030,7 @@
         <v>102</v>
       </c>
       <c r="U15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V15" t="s">
         <v>102</v>
@@ -2045,7 +2042,7 @@
         <v>102</v>
       </c>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z15" t="s">
         <v>102</v>
@@ -2074,34 +2071,34 @@
         <v>114.021598815918</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
         <v>102</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s">
         <v>102</v>
       </c>
       <c r="O16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q16" t="s">
         <v>102</v>
@@ -2110,7 +2107,7 @@
         <v>102</v>
       </c>
       <c r="S16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T16" t="s">
         <v>102</v>
@@ -2125,16 +2122,16 @@
         <v>102</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z16" t="s">
         <v>102</v>
       </c>
       <c r="AA16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -2157,34 +2154,34 @@
         <v>69.33744049072266</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N17" t="s">
         <v>102</v>
       </c>
       <c r="O17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q17" t="s">
         <v>102</v>
@@ -2193,7 +2190,7 @@
         <v>102</v>
       </c>
       <c r="S17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T17" t="s">
         <v>102</v>
@@ -2202,7 +2199,7 @@
         <v>102</v>
       </c>
       <c r="V17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W17" t="s">
         <v>102</v>
@@ -2211,13 +2208,13 @@
         <v>102</v>
       </c>
       <c r="Y17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z17" t="s">
         <v>102</v>
       </c>
       <c r="AA17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -2240,7 +2237,7 @@
         <v>114.6379013061523</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H18" t="s">
         <v>102</v>
@@ -2264,10 +2261,10 @@
         <v>102</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q18" t="s">
         <v>102</v>
@@ -2291,16 +2288,16 @@
         <v>102</v>
       </c>
       <c r="X18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z18" t="s">
         <v>102</v>
       </c>
       <c r="AA18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -2323,13 +2320,13 @@
         <v>76.27118682861328</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J19" t="s">
         <v>102</v>
@@ -2347,10 +2344,10 @@
         <v>102</v>
       </c>
       <c r="O19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q19" t="s">
         <v>102</v>
@@ -2362,13 +2359,13 @@
         <v>102</v>
       </c>
       <c r="T19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U19" t="s">
         <v>102</v>
       </c>
       <c r="V19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W19" t="s">
         <v>102</v>
@@ -2377,13 +2374,13 @@
         <v>102</v>
       </c>
       <c r="Y19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z19" t="s">
         <v>102</v>
       </c>
       <c r="AA19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2406,7 +2403,7 @@
         <v>111.2481002807617</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
         <v>102</v>
@@ -2415,16 +2412,16 @@
         <v>102</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N20" t="s">
         <v>102</v>
@@ -2433,7 +2430,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q20" t="s">
         <v>102</v>
@@ -2445,7 +2442,7 @@
         <v>102</v>
       </c>
       <c r="T20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U20" t="s">
         <v>102</v>
@@ -2460,7 +2457,7 @@
         <v>102</v>
       </c>
       <c r="Y20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z20" t="s">
         <v>102</v>
@@ -2489,67 +2486,67 @@
         <v>110.9399032592773</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" t="s">
         <v>146</v>
       </c>
-      <c r="K21" t="s">
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" t="s">
+        <v>102</v>
+      </c>
+      <c r="S21" t="s">
         <v>146</v>
       </c>
-      <c r="L21" t="s">
+      <c r="T21" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" t="s">
+        <v>102</v>
+      </c>
+      <c r="V21" t="s">
+        <v>102</v>
+      </c>
+      <c r="W21" t="s">
+        <v>102</v>
+      </c>
+      <c r="X21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA21" t="s">
         <v>147</v>
-      </c>
-      <c r="M21" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21" t="s">
-        <v>102</v>
-      </c>
-      <c r="O21" t="s">
-        <v>148</v>
-      </c>
-      <c r="P21" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>102</v>
-      </c>
-      <c r="R21" t="s">
-        <v>102</v>
-      </c>
-      <c r="S21" t="s">
-        <v>147</v>
-      </c>
-      <c r="T21" t="s">
-        <v>102</v>
-      </c>
-      <c r="U21" t="s">
-        <v>102</v>
-      </c>
-      <c r="V21" t="s">
-        <v>102</v>
-      </c>
-      <c r="W21" t="s">
-        <v>102</v>
-      </c>
-      <c r="X21" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -2572,25 +2569,25 @@
         <v>74.57627105712891</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N22" t="s">
         <v>102</v>
@@ -2599,16 +2596,16 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q22" t="s">
         <v>102</v>
       </c>
       <c r="R22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T22" t="s">
         <v>102</v>
@@ -2626,7 +2623,7 @@
         <v>102</v>
       </c>
       <c r="Y22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z22" t="s">
         <v>102</v>
@@ -2655,25 +2652,25 @@
         <v>84.12943267822266</v>
       </c>
       <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s">
         <v>117</v>
       </c>
-      <c r="H23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" t="s">
-        <v>118</v>
-      </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N23" t="s">
         <v>102</v>
@@ -2682,13 +2679,13 @@
         <v>102</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q23" t="s">
         <v>102</v>
       </c>
       <c r="R23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S23" t="s">
         <v>102</v>
@@ -2709,7 +2706,7 @@
         <v>102</v>
       </c>
       <c r="Y23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z23" t="s">
         <v>102</v>
@@ -2738,26 +2735,26 @@
         <v>91.21726226806641</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" t="s">
         <v>138</v>
       </c>
-      <c r="J24" t="s">
-        <v>139</v>
-      </c>
       <c r="K24" t="s">
+        <v>145</v>
+      </c>
+      <c r="L24" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" t="s">
         <v>146</v>
       </c>
-      <c r="L24" t="s">
-        <v>102</v>
-      </c>
-      <c r="M24" t="s">
-        <v>147</v>
-      </c>
       <c r="N24" t="s">
         <v>102</v>
       </c>
@@ -2765,13 +2762,13 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q24" t="s">
         <v>102</v>
       </c>
       <c r="R24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S24" t="s">
         <v>102</v>
@@ -2792,7 +2789,7 @@
         <v>102</v>
       </c>
       <c r="Y24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z24" t="s">
         <v>102</v>
@@ -2821,10 +2818,10 @@
         <v>106.0092010498047</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
         <v>102</v>
@@ -2845,43 +2842,43 @@
         <v>102</v>
       </c>
       <c r="O25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P25" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" t="s">
+        <v>102</v>
+      </c>
+      <c r="S25" t="s">
+        <v>102</v>
+      </c>
+      <c r="T25" t="s">
+        <v>102</v>
+      </c>
+      <c r="U25" t="s">
+        <v>102</v>
+      </c>
+      <c r="V25" t="s">
+        <v>102</v>
+      </c>
+      <c r="W25" t="s">
+        <v>147</v>
+      </c>
+      <c r="X25" t="s">
         <v>146</v>
       </c>
-      <c r="Q25" t="s">
-        <v>102</v>
-      </c>
-      <c r="R25" t="s">
-        <v>102</v>
-      </c>
-      <c r="S25" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" t="s">
-        <v>102</v>
-      </c>
-      <c r="U25" t="s">
-        <v>102</v>
-      </c>
-      <c r="V25" t="s">
-        <v>102</v>
-      </c>
-      <c r="W25" t="s">
-        <v>148</v>
-      </c>
-      <c r="X25" t="s">
-        <v>147</v>
-      </c>
       <c r="Y25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z25" t="s">
         <v>102</v>
       </c>
       <c r="AA25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2904,25 +2901,25 @@
         <v>94.14483642578125</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" t="s">
         <v>146</v>
       </c>
-      <c r="K26" t="s">
-        <v>147</v>
-      </c>
       <c r="L26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N26" t="s">
         <v>102</v>
@@ -2931,7 +2928,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q26" t="s">
         <v>102</v>
@@ -2943,7 +2940,7 @@
         <v>102</v>
       </c>
       <c r="T26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U26" t="s">
         <v>102</v>
@@ -2958,7 +2955,7 @@
         <v>102</v>
       </c>
       <c r="Y26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z26" t="s">
         <v>102</v>
@@ -2987,31 +2984,31 @@
         <v>126.3481979370117</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" t="s">
         <v>102</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N27" t="s">
         <v>102</v>
       </c>
       <c r="O27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P27" t="s">
         <v>102</v>
@@ -3026,7 +3023,7 @@
         <v>102</v>
       </c>
       <c r="T27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U27" t="s">
         <v>102</v>
@@ -3038,7 +3035,7 @@
         <v>102</v>
       </c>
       <c r="X27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y27" t="s">
         <v>102</v>
@@ -3047,7 +3044,7 @@
         <v>102</v>
       </c>
       <c r="AA27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3070,40 +3067,40 @@
         <v>96.14791870117188</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" t="s">
         <v>102</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s">
         <v>102</v>
       </c>
       <c r="L28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O28" t="s">
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q28" t="s">
         <v>102</v>
       </c>
       <c r="R28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S28" t="s">
         <v>102</v>
@@ -3124,10 +3121,10 @@
         <v>102</v>
       </c>
       <c r="Y28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA28" t="s">
         <v>102</v>
@@ -3153,34 +3150,34 @@
         <v>60.24652862548828</v>
       </c>
       <c r="G29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H29" t="s">
         <v>102</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N29" t="s">
         <v>102</v>
       </c>
       <c r="O29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q29" t="s">
         <v>102</v>
@@ -3192,13 +3189,13 @@
         <v>102</v>
       </c>
       <c r="T29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U29" t="s">
         <v>102</v>
       </c>
       <c r="V29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W29" t="s">
         <v>102</v>
@@ -3207,13 +3204,13 @@
         <v>102</v>
       </c>
       <c r="Y29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z29" t="s">
         <v>102</v>
       </c>
       <c r="AA29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3236,13 +3233,13 @@
         <v>76.42527008056641</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J30" t="s">
         <v>102</v>
@@ -3260,10 +3257,10 @@
         <v>102</v>
       </c>
       <c r="O30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q30" t="s">
         <v>102</v>
@@ -3281,7 +3278,7 @@
         <v>102</v>
       </c>
       <c r="V30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W30" t="s">
         <v>102</v>
@@ -3290,13 +3287,13 @@
         <v>102</v>
       </c>
       <c r="Y30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z30" t="s">
         <v>102</v>
       </c>
       <c r="AA30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -3319,7 +3316,7 @@
         <v>103.5438995361328</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" t="s">
         <v>102</v>
@@ -3343,10 +3340,10 @@
         <v>102</v>
       </c>
       <c r="O31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q31" t="s">
         <v>102</v>
@@ -3370,16 +3367,16 @@
         <v>102</v>
       </c>
       <c r="X31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z31" t="s">
         <v>102</v>
       </c>
       <c r="AA31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -3402,25 +3399,25 @@
         <v>110.9399032592773</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" t="s">
         <v>102</v>
       </c>
       <c r="I32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K32" t="s">
+        <v>137</v>
+      </c>
+      <c r="L32" t="s">
         <v>138</v>
       </c>
-      <c r="L32" t="s">
-        <v>139</v>
-      </c>
       <c r="M32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N32" t="s">
         <v>102</v>
@@ -3429,7 +3426,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q32" t="s">
         <v>102</v>
@@ -3438,7 +3435,7 @@
         <v>102</v>
       </c>
       <c r="S32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T32" t="s">
         <v>102</v>
@@ -3456,7 +3453,7 @@
         <v>102</v>
       </c>
       <c r="Y32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z32" t="s">
         <v>102</v>
@@ -3485,7 +3482,7 @@
         <v>138.6748962402344</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
         <v>102</v>
@@ -3512,7 +3509,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q33" t="s">
         <v>102</v>
@@ -3539,7 +3536,7 @@
         <v>102</v>
       </c>
       <c r="Y33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z33" t="s">
         <v>102</v>
@@ -3568,7 +3565,7 @@
         <v>129.4299011230469</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H34" t="s">
         <v>102</v>
@@ -3595,7 +3592,7 @@
         <v>102</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q34" t="s">
         <v>102</v>
@@ -3622,7 +3619,7 @@
         <v>102</v>
       </c>
       <c r="Y34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z34" t="s">
         <v>102</v>
@@ -3648,7 +3645,7 @@
         <v>102</v>
       </c>
       <c r="G35" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H35" t="s">
         <v>102</v>
@@ -3728,7 +3725,7 @@
         <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H36" t="s">
         <v>102</v>
@@ -3758,7 +3755,7 @@
         <v>102</v>
       </c>
       <c r="Q36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R36" t="s">
         <v>102</v>
@@ -3808,7 +3805,7 @@
         <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H37" t="s">
         <v>102</v>
@@ -3835,10 +3832,10 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R37" t="s">
         <v>102</v>
@@ -3862,7 +3859,7 @@
         <v>102</v>
       </c>
       <c r="Y37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z37" t="s">
         <v>102</v>
@@ -3888,7 +3885,7 @@
         <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H38" t="s">
         <v>102</v>
@@ -3915,10 +3912,10 @@
         <v>102</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R38" t="s">
         <v>102</v>
@@ -3942,7 +3939,7 @@
         <v>102</v>
       </c>
       <c r="Y38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z38" t="s">
         <v>102</v>
@@ -3968,7 +3965,7 @@
         <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H39" t="s">
         <v>102</v>
@@ -3995,7 +3992,7 @@
         <v>102</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q39" t="s">
         <v>102</v>
@@ -4022,7 +4019,7 @@
         <v>102</v>
       </c>
       <c r="Y39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z39" t="s">
         <v>102</v>
@@ -4048,7 +4045,7 @@
         <v>102</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H40" t="s">
         <v>102</v>
@@ -4075,7 +4072,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q40" t="s">
         <v>102</v>
@@ -4102,7 +4099,7 @@
         <v>102</v>
       </c>
       <c r="Y40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z40" t="s">
         <v>102</v>
@@ -4128,7 +4125,7 @@
         <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H41" t="s">
         <v>102</v>
@@ -4155,7 +4152,7 @@
         <v>102</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q41" t="s">
         <v>102</v>
@@ -4182,7 +4179,7 @@
         <v>102</v>
       </c>
       <c r="Y41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z41" t="s">
         <v>102</v>
@@ -4208,7 +4205,7 @@
         <v>102</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H42" t="s">
         <v>102</v>
@@ -4235,7 +4232,7 @@
         <v>102</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q42" t="s">
         <v>102</v>
@@ -4262,7 +4259,7 @@
         <v>102</v>
       </c>
       <c r="Y42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z42" t="s">
         <v>102</v>
@@ -4288,7 +4285,7 @@
         <v>102</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H43" t="s">
         <v>102</v>
@@ -4315,10 +4312,10 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R43" t="s">
         <v>102</v>
@@ -4342,7 +4339,7 @@
         <v>102</v>
       </c>
       <c r="Y43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z43" t="s">
         <v>102</v>
@@ -4368,7 +4365,7 @@
         <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H44" t="s">
         <v>102</v>
@@ -4395,7 +4392,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q44" t="s">
         <v>102</v>
@@ -4422,7 +4419,7 @@
         <v>102</v>
       </c>
       <c r="Y44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z44" t="s">
         <v>102</v>
@@ -4448,7 +4445,7 @@
         <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H45" t="s">
         <v>102</v>
@@ -4528,67 +4525,67 @@
         <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I46" t="s">
         <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s">
+        <v>145</v>
+      </c>
+      <c r="M46" t="s">
+        <v>122</v>
+      </c>
+      <c r="N46" t="s">
+        <v>102</v>
+      </c>
+      <c r="O46" t="s">
+        <v>134</v>
+      </c>
+      <c r="P46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>102</v>
+      </c>
+      <c r="R46" t="s">
+        <v>102</v>
+      </c>
+      <c r="S46" t="s">
+        <v>134</v>
+      </c>
+      <c r="T46" t="s">
+        <v>102</v>
+      </c>
+      <c r="U46" t="s">
+        <v>102</v>
+      </c>
+      <c r="V46" t="s">
+        <v>102</v>
+      </c>
+      <c r="W46" t="s">
+        <v>102</v>
+      </c>
+      <c r="X46" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y46" t="s">
         <v>146</v>
       </c>
-      <c r="M46" t="s">
-        <v>123</v>
-      </c>
-      <c r="N46" t="s">
-        <v>102</v>
-      </c>
-      <c r="O46" t="s">
-        <v>135</v>
-      </c>
-      <c r="P46" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>102</v>
-      </c>
-      <c r="R46" t="s">
-        <v>102</v>
-      </c>
-      <c r="S46" t="s">
-        <v>135</v>
-      </c>
-      <c r="T46" t="s">
-        <v>102</v>
-      </c>
-      <c r="U46" t="s">
-        <v>102</v>
-      </c>
-      <c r="V46" t="s">
-        <v>102</v>
-      </c>
-      <c r="W46" t="s">
-        <v>102</v>
-      </c>
-      <c r="X46" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>147</v>
-      </c>
       <c r="Z46" t="s">
         <v>102</v>
       </c>
       <c r="AA46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4608,7 +4605,7 @@
         <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H47" t="s">
         <v>102</v>
@@ -4635,7 +4632,7 @@
         <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q47" t="s">
         <v>102</v>
@@ -4662,7 +4659,7 @@
         <v>102</v>
       </c>
       <c r="Y47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z47" t="s">
         <v>102</v>
@@ -4688,7 +4685,7 @@
         <v>102</v>
       </c>
       <c r="G48" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H48" t="s">
         <v>102</v>
@@ -4715,7 +4712,7 @@
         <v>102</v>
       </c>
       <c r="P48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q48" t="s">
         <v>102</v>
@@ -4742,7 +4739,7 @@
         <v>102</v>
       </c>
       <c r="Y48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z48" t="s">
         <v>102</v>
@@ -4768,7 +4765,7 @@
         <v>102</v>
       </c>
       <c r="G49" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H49" t="s">
         <v>102</v>
@@ -4848,7 +4845,7 @@
         <v>102</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H50" t="s">
         <v>102</v>
@@ -4875,7 +4872,7 @@
         <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q50" t="s">
         <v>102</v>
@@ -4902,7 +4899,7 @@
         <v>102</v>
       </c>
       <c r="Y50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z50" t="s">
         <v>102</v>
@@ -4928,7 +4925,7 @@
         <v>102</v>
       </c>
       <c r="G51" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H51" t="s">
         <v>102</v>
@@ -4955,7 +4952,7 @@
         <v>102</v>
       </c>
       <c r="P51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q51" t="s">
         <v>102</v>
@@ -4982,7 +4979,7 @@
         <v>102</v>
       </c>
       <c r="Y51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z51" t="s">
         <v>102</v>
@@ -5008,7 +5005,7 @@
         <v>102</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H52" t="s">
         <v>102</v>
@@ -5088,7 +5085,7 @@
         <v>102</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H53" t="s">
         <v>102</v>
@@ -5115,7 +5112,7 @@
         <v>102</v>
       </c>
       <c r="P53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q53" t="s">
         <v>102</v>
@@ -5142,7 +5139,7 @@
         <v>102</v>
       </c>
       <c r="Y53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z53" t="s">
         <v>102</v>
@@ -5168,53 +5165,53 @@
         <v>102</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J54" t="s">
+        <v>137</v>
+      </c>
+      <c r="K54" t="s">
+        <v>145</v>
+      </c>
+      <c r="L54" t="s">
+        <v>145</v>
+      </c>
+      <c r="M54" t="s">
+        <v>134</v>
+      </c>
+      <c r="N54" t="s">
+        <v>102</v>
+      </c>
+      <c r="O54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P54" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>102</v>
+      </c>
+      <c r="R54" t="s">
+        <v>102</v>
+      </c>
+      <c r="S54" t="s">
+        <v>134</v>
+      </c>
+      <c r="T54" t="s">
+        <v>102</v>
+      </c>
+      <c r="U54" t="s">
+        <v>102</v>
+      </c>
+      <c r="V54" t="s">
         <v>138</v>
       </c>
-      <c r="K54" t="s">
-        <v>146</v>
-      </c>
-      <c r="L54" t="s">
-        <v>146</v>
-      </c>
-      <c r="M54" t="s">
-        <v>135</v>
-      </c>
-      <c r="N54" t="s">
-        <v>102</v>
-      </c>
-      <c r="O54" t="s">
-        <v>102</v>
-      </c>
-      <c r="P54" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>102</v>
-      </c>
-      <c r="R54" t="s">
-        <v>102</v>
-      </c>
-      <c r="S54" t="s">
-        <v>135</v>
-      </c>
-      <c r="T54" t="s">
-        <v>102</v>
-      </c>
-      <c r="U54" t="s">
-        <v>102</v>
-      </c>
-      <c r="V54" t="s">
-        <v>139</v>
-      </c>
       <c r="W54" t="s">
         <v>102</v>
       </c>
@@ -5222,7 +5219,7 @@
         <v>102</v>
       </c>
       <c r="Y54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z54" t="s">
         <v>102</v>
@@ -5248,7 +5245,7 @@
         <v>102</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H55" t="s">
         <v>102</v>
@@ -5328,7 +5325,7 @@
         <v>102</v>
       </c>
       <c r="G56" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H56" t="s">
         <v>102</v>
@@ -5408,13 +5405,13 @@
         <v>102</v>
       </c>
       <c r="G57" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H57" t="s">
         <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J57" t="s">
         <v>102</v>
@@ -5435,7 +5432,7 @@
         <v>102</v>
       </c>
       <c r="P57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q57" t="s">
         <v>102</v>
@@ -5462,7 +5459,7 @@
         <v>102</v>
       </c>
       <c r="Y57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z57" t="s">
         <v>102</v>
@@ -5488,7 +5485,7 @@
         <v>102</v>
       </c>
       <c r="G58" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H58" t="s">
         <v>102</v>
@@ -5515,7 +5512,7 @@
         <v>102</v>
       </c>
       <c r="P58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q58" t="s">
         <v>102</v>
@@ -5542,7 +5539,7 @@
         <v>102</v>
       </c>
       <c r="Y58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z58" t="s">
         <v>102</v>
@@ -5568,7 +5565,7 @@
         <v>102</v>
       </c>
       <c r="G59" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H59" t="s">
         <v>102</v>
@@ -5595,7 +5592,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q59" t="s">
         <v>102</v>
@@ -5622,7 +5619,7 @@
         <v>102</v>
       </c>
       <c r="Y59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z59" t="s">
         <v>102</v>
@@ -5648,13 +5645,13 @@
         <v>102</v>
       </c>
       <c r="G60" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H60" t="s">
         <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J60" t="s">
         <v>102</v>
@@ -5728,32 +5725,32 @@
         <v>102</v>
       </c>
       <c r="G61" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H61" t="s">
         <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s">
+        <v>145</v>
+      </c>
+      <c r="M61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N61" t="s">
         <v>146</v>
       </c>
-      <c r="M61" t="s">
-        <v>102</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>147</v>
       </c>
-      <c r="O61" t="s">
-        <v>148</v>
-      </c>
       <c r="P61" t="s">
         <v>102</v>
       </c>
@@ -5767,28 +5764,28 @@
         <v>102</v>
       </c>
       <c r="T61" t="s">
+        <v>145</v>
+      </c>
+      <c r="U61" t="s">
+        <v>102</v>
+      </c>
+      <c r="V61" t="s">
+        <v>102</v>
+      </c>
+      <c r="W61" t="s">
+        <v>102</v>
+      </c>
+      <c r="X61" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z61" t="s">
         <v>146</v>
       </c>
-      <c r="U61" t="s">
-        <v>102</v>
-      </c>
-      <c r="V61" t="s">
-        <v>102</v>
-      </c>
-      <c r="W61" t="s">
-        <v>102</v>
-      </c>
-      <c r="X61" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>147</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -5808,7 +5805,7 @@
         <v>102</v>
       </c>
       <c r="G62" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H62" t="s">
         <v>102</v>
@@ -5835,7 +5832,7 @@
         <v>102</v>
       </c>
       <c r="P62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q62" t="s">
         <v>102</v>
@@ -5862,7 +5859,7 @@
         <v>102</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z62" t="s">
         <v>102</v>
@@ -5888,7 +5885,7 @@
         <v>102</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H63" t="s">
         <v>102</v>
@@ -5968,13 +5965,13 @@
         <v>102</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J64" t="s">
         <v>102</v>
@@ -5995,22 +5992,22 @@
         <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q64" t="s">
         <v>102</v>
       </c>
       <c r="R64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S64" t="s">
         <v>102</v>
       </c>
       <c r="T64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V64" t="s">
         <v>102</v>
@@ -6019,10 +6016,10 @@
         <v>102</v>
       </c>
       <c r="X64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z64" t="s">
         <v>102</v>
@@ -6048,7 +6045,7 @@
         <v>102</v>
       </c>
       <c r="G65" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H65" t="s">
         <v>102</v>
@@ -6069,13 +6066,13 @@
         <v>102</v>
       </c>
       <c r="N65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O65" t="s">
         <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q65" t="s">
         <v>102</v>
@@ -6102,10 +6099,10 @@
         <v>102</v>
       </c>
       <c r="Y65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA65" t="s">
         <v>102</v>
@@ -6128,13 +6125,13 @@
         <v>102</v>
       </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H66" t="s">
         <v>102</v>
       </c>
       <c r="I66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J66" t="s">
         <v>102</v>
@@ -6143,11 +6140,11 @@
         <v>102</v>
       </c>
       <c r="L66" t="s">
+        <v>137</v>
+      </c>
+      <c r="M66" t="s">
         <v>138</v>
       </c>
-      <c r="M66" t="s">
-        <v>139</v>
-      </c>
       <c r="N66" t="s">
         <v>102</v>
       </c>
@@ -6170,7 +6167,7 @@
         <v>102</v>
       </c>
       <c r="U66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V66" t="s">
         <v>102</v>
@@ -6208,10 +6205,10 @@
         <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I67" t="s">
         <v>112</v>
@@ -6232,10 +6229,10 @@
         <v>102</v>
       </c>
       <c r="O67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q67" t="s">
         <v>102</v>
@@ -6253,7 +6250,7 @@
         <v>102</v>
       </c>
       <c r="V67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W67" t="s">
         <v>102</v>
@@ -6262,13 +6259,13 @@
         <v>102</v>
       </c>
       <c r="Y67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z67" t="s">
         <v>102</v>
       </c>
       <c r="AA67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6288,13 +6285,13 @@
         <v>102</v>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H68" t="s">
         <v>102</v>
       </c>
       <c r="I68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J68" t="s">
         <v>102</v>
@@ -6368,25 +6365,25 @@
         <v>102</v>
       </c>
       <c r="G69" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H69" t="s">
         <v>102</v>
       </c>
       <c r="I69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N69" t="s">
         <v>102</v>
@@ -6410,7 +6407,7 @@
         <v>102</v>
       </c>
       <c r="U69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V69" t="s">
         <v>102</v>
@@ -6448,19 +6445,19 @@
         <v>102</v>
       </c>
       <c r="G70" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H70" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J70" t="s">
         <v>102</v>
       </c>
       <c r="K70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s">
         <v>102</v>
@@ -6472,10 +6469,10 @@
         <v>102</v>
       </c>
       <c r="O70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q70" t="s">
         <v>102</v>
@@ -6490,25 +6487,25 @@
         <v>102</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W70" t="s">
         <v>102</v>
       </c>
       <c r="X70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z70" t="s">
         <v>102</v>
       </c>
       <c r="AA70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -6528,7 +6525,7 @@
         <v>102</v>
       </c>
       <c r="G71" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H71" t="s">
         <v>102</v>

--- a/output/report.xlsx
+++ b/output/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="145">
   <si>
     <t>Cell_Type</t>
   </si>
@@ -220,9 +220,6 @@
     <t>HGADFN0367</t>
   </si>
   <si>
-    <t>NA0016</t>
-  </si>
-  <si>
     <t>NA0025</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>NA0157</t>
   </si>
   <si>
-    <t>NA0170</t>
-  </si>
-  <si>
     <t>NA0205</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
   </si>
   <si>
     <t>NA0633</t>
-  </si>
-  <si>
-    <t>NA0663</t>
   </si>
   <si>
     <t>NA0730</t>
@@ -815,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA71"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,79 +900,79 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AA2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -989,79 +980,79 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -1069,82 +1060,82 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>129.4299011230469</v>
+        <v>129.4299926757812</v>
       </c>
       <c r="G4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" t="s">
         <v>114</v>
       </c>
-      <c r="H4" t="s">
-        <v>117</v>
-      </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Z4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -1152,79 +1143,79 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1232,79 +1223,79 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" t="s">
         <v>101</v>
       </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" t="s">
-        <v>104</v>
-      </c>
       <c r="J6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="R6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Y6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1312,79 +1303,79 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" t="s">
+        <v>142</v>
+      </c>
+      <c r="S7" t="s">
         <v>131</v>
       </c>
-      <c r="J7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>102</v>
-      </c>
-      <c r="R7" t="s">
-        <v>145</v>
-      </c>
-      <c r="S7" t="s">
-        <v>134</v>
-      </c>
       <c r="T7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Y7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Z7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -1392,82 +1383,82 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8">
-        <v>118.6440963745117</v>
+        <v>118.6399993896484</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1475,82 +1466,82 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F9">
-        <v>140.5238952636719</v>
+        <v>140.5200042724609</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P9" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>99</v>
+      </c>
+      <c r="S9" t="s">
+        <v>99</v>
+      </c>
+      <c r="T9" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R9" t="s">
-        <v>102</v>
-      </c>
-      <c r="S9" t="s">
-        <v>102</v>
-      </c>
-      <c r="T9" t="s">
-        <v>102</v>
-      </c>
-      <c r="U9" t="s">
-        <v>129</v>
-      </c>
       <c r="V9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Z9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -1558,82 +1549,82 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>51</v>
       </c>
       <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
         <v>101</v>
       </c>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
       <c r="F10">
-        <v>110.0154037475586</v>
+        <v>110.0199966430664</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="V10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -1641,82 +1632,82 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F11">
-        <v>130.66259765625</v>
+        <v>130.6600036621094</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1724,82 +1715,82 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F12">
-        <v>100.1540985107422</v>
+        <v>100.1500015258789</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AA12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -1807,82 +1798,82 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13">
-        <v>129.4299011230469</v>
+        <v>129.4299926757812</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -1890,82 +1881,82 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F14">
-        <v>125.8860015869141</v>
+        <v>125.8899993896484</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1973,82 +1964,82 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>57</v>
       </c>
       <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
         <v>100</v>
       </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
       <c r="F15">
-        <v>131.7411041259766</v>
+        <v>131.7400054931641</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="V15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -2056,82 +2047,82 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F16">
-        <v>114.021598815918</v>
+        <v>114.0199966430664</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -2139,82 +2130,82 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17">
-        <v>69.33744049072266</v>
+        <v>69.33999633789062</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Z17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -2222,82 +2213,82 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18">
-        <v>114.6379013061523</v>
+        <v>114.6399993896484</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -2305,82 +2296,82 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>33</v>
       </c>
       <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
       <c r="F19">
-        <v>76.27118682861328</v>
+        <v>76.26999664306641</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Z19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -2388,82 +2379,82 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F20">
-        <v>111.2481002807617</v>
+        <v>111.25</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2471,82 +2462,82 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F21">
-        <v>110.9399032592773</v>
+        <v>110.9400024414062</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="T21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -2554,82 +2545,82 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F22">
-        <v>74.57627105712891</v>
+        <v>74.58000183105469</v>
       </c>
       <c r="G22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" t="s">
         <v>116</v>
       </c>
-      <c r="H22" t="s">
-        <v>119</v>
-      </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2637,82 +2628,82 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>39</v>
       </c>
       <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
         <v>101</v>
       </c>
-      <c r="E23" t="s">
-        <v>104</v>
-      </c>
       <c r="F23">
-        <v>84.12943267822266</v>
+        <v>84.12999725341797</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2720,82 +2711,82 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F24">
-        <v>91.21726226806641</v>
+        <v>91.22000122070312</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2803,82 +2794,82 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>106.0092010498047</v>
+        <v>106.0100021362305</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="X25" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2886,82 +2877,82 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C26">
         <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F26">
-        <v>94.14483642578125</v>
+        <v>94.13999938964844</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -2969,82 +2960,82 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27">
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27">
-        <v>126.3481979370117</v>
+        <v>126.3499984741211</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3052,82 +3043,82 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F28">
-        <v>96.14791870117188</v>
+        <v>96.15000152587891</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R28" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="S28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AA28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3135,82 +3126,82 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29">
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29">
+        <v>60.25</v>
+      </c>
+      <c r="G29" t="s">
         <v>113</v>
       </c>
-      <c r="F29">
-        <v>60.24652862548828</v>
-      </c>
-      <c r="G29" t="s">
-        <v>116</v>
-      </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="U29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Z29" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3218,82 +3209,82 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F30">
-        <v>76.42527008056641</v>
+        <v>76.43000030517578</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Z30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -3301,82 +3292,82 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F31">
-        <v>103.5438995361328</v>
+        <v>103.5400009155273</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -3384,82 +3375,82 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F32">
-        <v>110.9399032592773</v>
+        <v>110.9400024414062</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="T32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3467,82 +3458,82 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C33">
         <v>60</v>
       </c>
       <c r="D33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
         <v>100</v>
       </c>
-      <c r="E33" t="s">
-        <v>103</v>
-      </c>
       <c r="F33">
-        <v>138.6748962402344</v>
+        <v>138.6699981689453</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3550,82 +3541,82 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F34">
-        <v>129.4299011230469</v>
+        <v>129.4299926757812</v>
       </c>
       <c r="G34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -3633,79 +3624,79 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3713,79 +3704,79 @@
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3793,79 +3784,79 @@
         <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -3873,79 +3864,79 @@
         <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C38">
         <v>3.75</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="R38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -3953,79 +3944,79 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C39">
         <v>8.5</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y39" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -4033,79 +4024,79 @@
         <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>2.25</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4113,79 +4104,79 @@
         <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C41">
         <v>1.25</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -4193,79 +4184,79 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y42" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Z42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4273,79 +4264,79 @@
         <v>68</v>
       </c>
       <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
         <v>97</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>100</v>
-      </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q43" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="R43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y43" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4353,79 +4344,79 @@
         <v>69</v>
       </c>
       <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
         <v>97</v>
       </c>
-      <c r="C44">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>100</v>
-      </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Q44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y44" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Z44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -4433,79 +4424,79 @@
         <v>70</v>
       </c>
       <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
         <v>97</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
-        <v>100</v>
-      </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H45" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="I45" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J45" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="L45" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="M45" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="N45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O45" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="P45" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="Q45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S45" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="T45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X45" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="Y45" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="Z45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA45" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4513,79 +4504,79 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
         <v>97</v>
       </c>
-      <c r="C46">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H46" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="I46" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="L46" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="M46" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="N46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O46" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="P46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S46" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="T46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X46" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="Y46" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Z46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA46" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4593,79 +4584,79 @@
         <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P47" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Q47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y47" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Z47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4673,79 +4664,79 @@
         <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4753,79 +4744,79 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
         <v>97</v>
       </c>
-      <c r="C49">
-        <v>68</v>
-      </c>
-      <c r="D49" t="s">
-        <v>101</v>
-      </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P49" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="Q49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y49" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="Z49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -4833,79 +4824,79 @@
         <v>75</v>
       </c>
       <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50">
+        <v>62</v>
+      </c>
+      <c r="D50" t="s">
         <v>97</v>
       </c>
-      <c r="C50">
-        <v>61</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
-      </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P50" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Q50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y50" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Z50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -4913,79 +4904,79 @@
         <v>76</v>
       </c>
       <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
         <v>97</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>100</v>
-      </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -4993,79 +4984,79 @@
         <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C52">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H52" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="I52" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="J52" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="K52" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="L52" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="M52" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="N52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P52" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="Q52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S52" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="T52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V52" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="W52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y52" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="Z52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5073,79 +5064,79 @@
         <v>78</v>
       </c>
       <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
         <v>97</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>100</v>
-      </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P53" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Q53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y53" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Z53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -5153,79 +5144,79 @@
         <v>79</v>
       </c>
       <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
         <v>97</v>
       </c>
-      <c r="C54">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
-      </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H54" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="J54" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="L54" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="M54" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="N54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P54" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="Q54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S54" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="T54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V54" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="W54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y54" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="Z54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5233,79 +5224,79 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
         <v>97</v>
       </c>
-      <c r="C55">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>100</v>
-      </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I55" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="J55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P55" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="Q55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y55" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="Z55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5313,79 +5304,79 @@
         <v>81</v>
       </c>
       <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
         <v>97</v>
       </c>
-      <c r="C56">
-        <v>49</v>
-      </c>
-      <c r="D56" t="s">
-        <v>100</v>
-      </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P56" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="Q56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y56" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="Z56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5393,79 +5384,79 @@
         <v>82</v>
       </c>
       <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
         <v>97</v>
       </c>
-      <c r="C57">
-        <v>48</v>
-      </c>
-      <c r="D57" t="s">
-        <v>100</v>
-      </c>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="J57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y57" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5473,79 +5464,79 @@
         <v>83</v>
       </c>
       <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58">
+        <v>51</v>
+      </c>
+      <c r="D58" t="s">
         <v>97</v>
       </c>
-      <c r="C58">
-        <v>40</v>
-      </c>
-      <c r="D58" t="s">
-        <v>100</v>
-      </c>
       <c r="E58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I58" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="J58" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="K58" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="M58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N58" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="O58" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="P58" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Q58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T58" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="U58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y58" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Z58" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AA58" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5553,79 +5544,79 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59">
+        <v>46</v>
+      </c>
+      <c r="D59" t="s">
         <v>97</v>
       </c>
-      <c r="C59">
-        <v>50</v>
-      </c>
-      <c r="D59" t="s">
-        <v>100</v>
-      </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5633,79 +5624,79 @@
         <v>85</v>
       </c>
       <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
         <v>97</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>100</v>
-      </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I60" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="J60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5713,79 +5704,79 @@
         <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C61">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H61" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="I61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J61" t="s">
+        <v>99</v>
+      </c>
+      <c r="K61" t="s">
+        <v>99</v>
+      </c>
+      <c r="L61" t="s">
+        <v>99</v>
+      </c>
+      <c r="M61" t="s">
+        <v>99</v>
+      </c>
+      <c r="N61" t="s">
+        <v>99</v>
+      </c>
+      <c r="O61" t="s">
+        <v>99</v>
+      </c>
+      <c r="P61" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>99</v>
+      </c>
+      <c r="R61" t="s">
         <v>126</v>
       </c>
-      <c r="K61" t="s">
-        <v>134</v>
-      </c>
-      <c r="L61" t="s">
-        <v>145</v>
-      </c>
-      <c r="M61" t="s">
-        <v>102</v>
-      </c>
-      <c r="N61" t="s">
-        <v>146</v>
-      </c>
-      <c r="O61" t="s">
-        <v>147</v>
-      </c>
-      <c r="P61" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>102</v>
-      </c>
-      <c r="R61" t="s">
-        <v>102</v>
-      </c>
       <c r="S61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T61" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U61" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="V61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X61" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="Y61" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="Z61" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="AA61" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -5793,79 +5784,79 @@
         <v>87</v>
       </c>
       <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
         <v>97</v>
       </c>
-      <c r="C62">
-        <v>46</v>
-      </c>
-      <c r="D62" t="s">
-        <v>100</v>
-      </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N62" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="O62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Z62" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="AA62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -5873,79 +5864,79 @@
         <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C63">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I63" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="J63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L63" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="M63" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="N63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U63" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="V63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA63" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -5953,79 +5944,79 @@
         <v>89</v>
       </c>
       <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64">
+        <v>56</v>
+      </c>
+      <c r="D64" t="s">
         <v>97</v>
       </c>
-      <c r="C64">
-        <v>48</v>
-      </c>
-      <c r="D64" t="s">
-        <v>101</v>
-      </c>
       <c r="E64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I64" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="J64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O64" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="P64" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R64" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="S64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T64" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="U64" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="V64" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="W64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X64" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="Y64" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Z64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA64" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -6033,79 +6024,79 @@
         <v>90</v>
       </c>
       <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
         <v>97</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>100</v>
-      </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I65" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="J65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N65" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="O65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P65" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Q65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y65" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="Z65" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="AA65" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -6113,79 +6104,79 @@
         <v>91</v>
       </c>
       <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66">
+        <v>62</v>
+      </c>
+      <c r="D66" t="s">
         <v>97</v>
       </c>
-      <c r="C66">
-        <v>61</v>
-      </c>
-      <c r="D66" t="s">
-        <v>101</v>
-      </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J66" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="K66" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M66" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U66" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="V66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -6193,79 +6184,79 @@
         <v>92</v>
       </c>
       <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67">
+        <v>43</v>
+      </c>
+      <c r="D67" t="s">
         <v>97</v>
       </c>
-      <c r="C67">
-        <v>56</v>
-      </c>
-      <c r="D67" t="s">
-        <v>100</v>
-      </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H67" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I67" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="J67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K67" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O67" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="Q67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U67" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="V67" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="W67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X67" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="Y67" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="Z67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA67" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6273,319 +6264,79 @@
         <v>93</v>
       </c>
       <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
         <v>97</v>
       </c>
-      <c r="C68">
-        <v>50</v>
-      </c>
-      <c r="D68" t="s">
-        <v>100</v>
-      </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I68" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="J68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="R68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="T68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="U68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Z68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
-      <c r="A69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69">
-        <v>62</v>
-      </c>
-      <c r="D69" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" t="s">
-        <v>102</v>
-      </c>
-      <c r="G69" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" t="s">
-        <v>123</v>
-      </c>
-      <c r="J69" t="s">
-        <v>145</v>
-      </c>
-      <c r="K69" t="s">
-        <v>134</v>
-      </c>
-      <c r="L69" t="s">
-        <v>145</v>
-      </c>
-      <c r="M69" t="s">
-        <v>134</v>
-      </c>
-      <c r="N69" t="s">
-        <v>102</v>
-      </c>
-      <c r="O69" t="s">
-        <v>102</v>
-      </c>
-      <c r="P69" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>102</v>
-      </c>
-      <c r="R69" t="s">
-        <v>102</v>
-      </c>
-      <c r="S69" t="s">
-        <v>102</v>
-      </c>
-      <c r="T69" t="s">
-        <v>102</v>
-      </c>
-      <c r="U69" t="s">
-        <v>145</v>
-      </c>
-      <c r="V69" t="s">
-        <v>102</v>
-      </c>
-      <c r="W69" t="s">
-        <v>102</v>
-      </c>
-      <c r="X69" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
-      <c r="A70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70">
-        <v>43</v>
-      </c>
-      <c r="D70" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" t="s">
-        <v>129</v>
-      </c>
-      <c r="I70" t="s">
-        <v>144</v>
-      </c>
-      <c r="J70" t="s">
-        <v>102</v>
-      </c>
-      <c r="K70" t="s">
-        <v>134</v>
-      </c>
-      <c r="L70" t="s">
-        <v>102</v>
-      </c>
-      <c r="M70" t="s">
-        <v>102</v>
-      </c>
-      <c r="N70" t="s">
-        <v>102</v>
-      </c>
-      <c r="O70" t="s">
-        <v>126</v>
-      </c>
-      <c r="P70" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>102</v>
-      </c>
-      <c r="R70" t="s">
-        <v>102</v>
-      </c>
-      <c r="S70" t="s">
-        <v>102</v>
-      </c>
-      <c r="T70" t="s">
-        <v>102</v>
-      </c>
-      <c r="U70" t="s">
-        <v>145</v>
-      </c>
-      <c r="V70" t="s">
-        <v>145</v>
-      </c>
-      <c r="W70" t="s">
-        <v>102</v>
-      </c>
-      <c r="X70" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
-      <c r="A71" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" t="s">
-        <v>102</v>
-      </c>
-      <c r="G71" t="s">
-        <v>102</v>
-      </c>
-      <c r="H71" t="s">
-        <v>102</v>
-      </c>
-      <c r="I71" t="s">
-        <v>102</v>
-      </c>
-      <c r="J71" t="s">
-        <v>102</v>
-      </c>
-      <c r="K71" t="s">
-        <v>102</v>
-      </c>
-      <c r="L71" t="s">
-        <v>102</v>
-      </c>
-      <c r="M71" t="s">
-        <v>102</v>
-      </c>
-      <c r="N71" t="s">
-        <v>102</v>
-      </c>
-      <c r="O71" t="s">
-        <v>102</v>
-      </c>
-      <c r="P71" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>102</v>
-      </c>
-      <c r="R71" t="s">
-        <v>102</v>
-      </c>
-      <c r="S71" t="s">
-        <v>102</v>
-      </c>
-      <c r="T71" t="s">
-        <v>102</v>
-      </c>
-      <c r="U71" t="s">
-        <v>102</v>
-      </c>
-      <c r="V71" t="s">
-        <v>102</v>
-      </c>
-      <c r="W71" t="s">
-        <v>102</v>
-      </c>
-      <c r="X71" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/output/report.xlsx
+++ b/output/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="145">
   <si>
     <t>Cell_Type</t>
   </si>
@@ -31,7 +31,7 @@
     <t>CAP_Score</t>
   </si>
   <si>
-    <t>Disease_Severity</t>
+    <t>Count_Experiments</t>
   </si>
   <si>
     <t>LIVE</t>
@@ -199,7 +199,7 @@
     <t>GM2036</t>
   </si>
   <si>
-    <t>HGADFN0013</t>
+    <t>HGADFN0143</t>
   </si>
   <si>
     <t>HGADFN0122</t>
@@ -298,10 +298,19 @@
     <t>NA7525</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
     <t>HC</t>
   </si>
   <si>
-    <t>HD</t>
+    <t>HD_Severe</t>
+  </si>
+  <si>
+    <t>HD_Mild</t>
+  </si>
+  <si>
+    <t>HD_Premanifest</t>
   </si>
   <si>
     <t>HGPS</t>
@@ -347,15 +356,6 @@
   </si>
   <si>
     <t>47</t>
-  </si>
-  <si>
-    <t>Severe</t>
-  </si>
-  <si>
-    <t>Mild</t>
-  </si>
-  <si>
-    <t>Premanifest</t>
   </si>
   <si>
     <t>28</t>
@@ -806,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA68"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,79 +900,79 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
         <v>143</v>
       </c>
       <c r="O2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q2" t="s">
         <v>126</v>
       </c>
       <c r="R2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z2" t="s">
         <v>143</v>
       </c>
       <c r="AA2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -980,79 +980,79 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P3" t="s">
         <v>142</v>
       </c>
       <c r="Q3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y3" t="s">
         <v>142</v>
       </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -1060,22 +1060,22 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4">
         <v>129.4299926757812</v>
       </c>
-      <c r="G4" t="s">
-        <v>111</v>
+      <c r="G4">
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>114</v>
@@ -1096,7 +1096,7 @@
         <v>142</v>
       </c>
       <c r="N4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O4" t="s">
         <v>144</v>
@@ -1105,34 +1105,34 @@
         <v>126</v>
       </c>
       <c r="Q4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S4" t="s">
         <v>131</v>
       </c>
       <c r="T4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V4" t="s">
         <v>142</v>
       </c>
       <c r="W4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y4" t="s">
         <v>126</v>
       </c>
       <c r="Z4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA4" t="s">
         <v>144</v>
@@ -1143,79 +1143,79 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -1223,25 +1223,25 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G6">
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
         <v>136</v>
@@ -1256,16 +1256,16 @@
         <v>122</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P6" t="s">
         <v>135</v>
       </c>
       <c r="Q6" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="R6" t="s">
         <v>142</v>
@@ -1277,13 +1277,13 @@
         <v>142</v>
       </c>
       <c r="U6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X6" t="s">
         <v>135</v>
@@ -1292,10 +1292,10 @@
         <v>135</v>
       </c>
       <c r="Z6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -1303,22 +1303,22 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I7" t="s">
         <v>128</v>
@@ -1336,7 +1336,7 @@
         <v>128</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
         <v>120</v>
@@ -1345,7 +1345,7 @@
         <v>129</v>
       </c>
       <c r="Q7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R7" t="s">
         <v>142</v>
@@ -1357,13 +1357,13 @@
         <v>142</v>
       </c>
       <c r="U7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V7" t="s">
         <v>142</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
         <v>135</v>
@@ -1372,7 +1372,7 @@
         <v>129</v>
       </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA7" t="s">
         <v>120</v>
@@ -1383,82 +1383,82 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F8">
         <v>118.6399993896484</v>
       </c>
-      <c r="G8" t="s">
-        <v>111</v>
+      <c r="G8">
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P8" t="s">
         <v>134</v>
       </c>
       <c r="Q8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
         <v>134</v>
       </c>
       <c r="Z8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1466,25 +1466,25 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F9">
         <v>140.5200042724609</v>
       </c>
-      <c r="G9" t="s">
-        <v>111</v>
+      <c r="G9">
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I9" t="s">
         <v>129</v>
@@ -1502,7 +1502,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
         <v>144</v>
@@ -1511,16 +1511,16 @@
         <v>123</v>
       </c>
       <c r="Q9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U9" t="s">
         <v>126</v>
@@ -1529,16 +1529,16 @@
         <v>142</v>
       </c>
       <c r="W9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
         <v>123</v>
       </c>
       <c r="Z9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA9" t="s">
         <v>144</v>
@@ -1549,43 +1549,43 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F10">
         <v>110.0199966430664</v>
       </c>
-      <c r="G10" t="s">
-        <v>112</v>
+      <c r="G10">
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
         <v>144</v>
@@ -1594,34 +1594,34 @@
         <v>134</v>
       </c>
       <c r="Q10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U10" t="s">
         <v>126</v>
       </c>
       <c r="V10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y10" t="s">
         <v>134</v>
       </c>
       <c r="Z10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA10" t="s">
         <v>144</v>
@@ -1632,82 +1632,82 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11">
         <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F11">
         <v>130.6600036621094</v>
       </c>
-      <c r="G11" t="s">
-        <v>111</v>
+      <c r="G11">
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s">
         <v>134</v>
       </c>
       <c r="Q11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R11" t="s">
         <v>142</v>
       </c>
       <c r="S11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y11" t="s">
         <v>134</v>
       </c>
       <c r="Z11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -1715,28 +1715,28 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F12">
         <v>100.1500015258789</v>
       </c>
-      <c r="G12" t="s">
-        <v>112</v>
+      <c r="G12">
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
         <v>142</v>
@@ -1760,28 +1760,28 @@
         <v>134</v>
       </c>
       <c r="Q12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T12" t="s">
         <v>142</v>
       </c>
       <c r="U12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y12" t="s">
         <v>134</v>
@@ -1798,43 +1798,43 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F13">
         <v>129.4299926757812</v>
       </c>
-      <c r="G13" t="s">
-        <v>111</v>
+      <c r="G13">
+        <v>16</v>
       </c>
       <c r="H13" t="s">
         <v>115</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O13" t="s">
         <v>134</v>
@@ -1843,34 +1843,34 @@
         <v>142</v>
       </c>
       <c r="Q13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W13" t="s">
         <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y13" t="s">
         <v>142</v>
       </c>
       <c r="Z13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA13" t="s">
         <v>134</v>
@@ -1881,25 +1881,25 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14">
         <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F14">
         <v>125.8899993896484</v>
       </c>
-      <c r="G14" t="s">
-        <v>111</v>
+      <c r="G14">
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s">
         <v>130</v>
@@ -1917,46 +1917,46 @@
         <v>142</v>
       </c>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P14" t="s">
         <v>134</v>
       </c>
       <c r="Q14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R14" t="s">
         <v>142</v>
       </c>
       <c r="S14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y14" t="s">
         <v>134</v>
       </c>
       <c r="Z14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -1964,25 +1964,25 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F15">
         <v>131.7400054931641</v>
       </c>
-      <c r="G15" t="s">
-        <v>111</v>
+      <c r="G15">
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s">
         <v>131</v>
@@ -2000,46 +2000,46 @@
         <v>143</v>
       </c>
       <c r="N15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s">
         <v>134</v>
       </c>
       <c r="Q15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U15" t="s">
         <v>126</v>
       </c>
       <c r="V15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y15" t="s">
         <v>134</v>
       </c>
       <c r="Z15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -2047,28 +2047,28 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F16">
         <v>114.0199966430664</v>
       </c>
-      <c r="G16" t="s">
-        <v>111</v>
+      <c r="G16">
+        <v>21</v>
       </c>
       <c r="H16" t="s">
         <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
         <v>142</v>
@@ -2083,7 +2083,7 @@
         <v>142</v>
       </c>
       <c r="N16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O16" t="s">
         <v>134</v>
@@ -2092,25 +2092,25 @@
         <v>142</v>
       </c>
       <c r="Q16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S16" t="s">
         <v>131</v>
       </c>
       <c r="T16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X16" t="s">
         <v>142</v>
@@ -2119,7 +2119,7 @@
         <v>142</v>
       </c>
       <c r="Z16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA16" t="s">
         <v>134</v>
@@ -2130,22 +2130,22 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F17">
         <v>69.33999633789062</v>
       </c>
-      <c r="G17" t="s">
-        <v>113</v>
+      <c r="G17">
+        <v>22</v>
       </c>
       <c r="H17" t="s">
         <v>117</v>
@@ -2166,7 +2166,7 @@
         <v>131</v>
       </c>
       <c r="N17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O17" t="s">
         <v>144</v>
@@ -2175,34 +2175,34 @@
         <v>126</v>
       </c>
       <c r="Q17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S17" t="s">
         <v>131</v>
       </c>
       <c r="T17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V17" t="s">
         <v>142</v>
       </c>
       <c r="W17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y17" t="s">
         <v>126</v>
       </c>
       <c r="Z17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA17" t="s">
         <v>144</v>
@@ -2213,43 +2213,43 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F18">
         <v>114.6399993896484</v>
       </c>
-      <c r="G18" t="s">
-        <v>111</v>
+      <c r="G18">
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O18" t="s">
         <v>135</v>
@@ -2258,25 +2258,25 @@
         <v>142</v>
       </c>
       <c r="Q18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X18" t="s">
         <v>142</v>
@@ -2285,7 +2285,7 @@
         <v>142</v>
       </c>
       <c r="Z18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA18" t="s">
         <v>135</v>
@@ -2296,22 +2296,22 @@
         <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F19">
         <v>76.26999664306641</v>
       </c>
-      <c r="G19" t="s">
-        <v>113</v>
+      <c r="G19">
+        <v>18</v>
       </c>
       <c r="H19" t="s">
         <v>118</v>
@@ -2320,19 +2320,19 @@
         <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O19" t="s">
         <v>144</v>
@@ -2341,34 +2341,34 @@
         <v>126</v>
       </c>
       <c r="Q19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T19" t="s">
         <v>142</v>
       </c>
       <c r="U19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V19" t="s">
         <v>142</v>
       </c>
       <c r="W19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y19" t="s">
         <v>126</v>
       </c>
       <c r="Z19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA19" t="s">
         <v>144</v>
@@ -2379,28 +2379,28 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F20">
         <v>111.25</v>
       </c>
-      <c r="G20" t="s">
-        <v>112</v>
+      <c r="G20">
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s">
         <v>142</v>
@@ -2415,46 +2415,46 @@
         <v>142</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
       </c>
       <c r="Q20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T20" t="s">
         <v>142</v>
       </c>
       <c r="U20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y20" t="s">
         <v>134</v>
       </c>
       <c r="Z20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -2462,22 +2462,22 @@
         <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F21">
         <v>110.9400024414062</v>
       </c>
-      <c r="G21" t="s">
-        <v>112</v>
+      <c r="G21">
+        <v>21</v>
       </c>
       <c r="H21" t="s">
         <v>118</v>
@@ -2498,7 +2498,7 @@
         <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O21" t="s">
         <v>144</v>
@@ -2507,34 +2507,34 @@
         <v>134</v>
       </c>
       <c r="Q21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S21" t="s">
         <v>143</v>
       </c>
       <c r="T21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y21" t="s">
         <v>134</v>
       </c>
       <c r="Z21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA21" t="s">
         <v>144</v>
@@ -2545,22 +2545,22 @@
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C22">
         <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F22">
         <v>74.58000183105469</v>
       </c>
-      <c r="G22" t="s">
-        <v>113</v>
+      <c r="G22">
+        <v>20</v>
       </c>
       <c r="H22" t="s">
         <v>116</v>
@@ -2581,16 +2581,16 @@
         <v>142</v>
       </c>
       <c r="N22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P22" t="s">
         <v>134</v>
       </c>
       <c r="Q22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R22" t="s">
         <v>142</v>
@@ -2599,28 +2599,28 @@
         <v>131</v>
       </c>
       <c r="T22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y22" t="s">
         <v>134</v>
       </c>
       <c r="Z22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -2628,22 +2628,22 @@
         <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F23">
         <v>84.12999725341797</v>
       </c>
-      <c r="G23" t="s">
-        <v>113</v>
+      <c r="G23">
+        <v>19</v>
       </c>
       <c r="H23" t="s">
         <v>119</v>
@@ -2664,46 +2664,46 @@
         <v>123</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P23" t="s">
         <v>134</v>
       </c>
       <c r="Q23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R23" t="s">
         <v>142</v>
       </c>
       <c r="S23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y23" t="s">
         <v>134</v>
       </c>
       <c r="Z23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -2711,22 +2711,22 @@
         <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C24">
         <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F24">
         <v>91.22000122070312</v>
       </c>
-      <c r="G24" t="s">
-        <v>112</v>
+      <c r="G24">
+        <v>18</v>
       </c>
       <c r="H24" t="s">
         <v>120</v>
@@ -2741,52 +2741,52 @@
         <v>142</v>
       </c>
       <c r="L24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M24" t="s">
         <v>143</v>
       </c>
       <c r="N24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P24" t="s">
         <v>134</v>
       </c>
       <c r="Q24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R24" t="s">
         <v>142</v>
       </c>
       <c r="S24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y24" t="s">
         <v>134</v>
       </c>
       <c r="Z24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -2794,43 +2794,43 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F25">
         <v>106.0100021362305</v>
       </c>
-      <c r="G25" t="s">
-        <v>112</v>
+      <c r="G25">
+        <v>17</v>
       </c>
       <c r="H25" t="s">
         <v>118</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O25" t="s">
         <v>135</v>
@@ -2839,22 +2839,22 @@
         <v>142</v>
       </c>
       <c r="Q25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W25" t="s">
         <v>144</v>
@@ -2866,7 +2866,7 @@
         <v>142</v>
       </c>
       <c r="Z25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA25" t="s">
         <v>135</v>
@@ -2877,22 +2877,22 @@
         <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F26">
         <v>94.13999938964844</v>
       </c>
-      <c r="G26" t="s">
-        <v>112</v>
+      <c r="G26">
+        <v>19</v>
       </c>
       <c r="H26" t="s">
         <v>121</v>
@@ -2913,46 +2913,46 @@
         <v>142</v>
       </c>
       <c r="N26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P26" t="s">
         <v>134</v>
       </c>
       <c r="Q26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T26" t="s">
         <v>142</v>
       </c>
       <c r="U26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y26" t="s">
         <v>134</v>
       </c>
       <c r="Z26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -2960,28 +2960,28 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27">
         <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F27">
         <v>126.3499984741211</v>
       </c>
-      <c r="G27" t="s">
-        <v>111</v>
+      <c r="G27">
+        <v>19</v>
       </c>
       <c r="H27" t="s">
         <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
         <v>135</v>
@@ -2996,43 +2996,43 @@
         <v>131</v>
       </c>
       <c r="N27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O27" t="s">
         <v>144</v>
       </c>
       <c r="P27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T27" t="s">
         <v>142</v>
       </c>
       <c r="U27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X27" t="s">
         <v>142</v>
       </c>
       <c r="Y27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA27" t="s">
         <v>144</v>
@@ -3043,25 +3043,25 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28">
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F28">
         <v>96.15000152587891</v>
       </c>
-      <c r="G28" t="s">
-        <v>112</v>
+      <c r="G28">
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I28" t="s">
         <v>136</v>
@@ -3070,7 +3070,7 @@
         <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s">
         <v>142</v>
@@ -3082,34 +3082,34 @@
         <v>134</v>
       </c>
       <c r="O28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P28" t="s">
         <v>134</v>
       </c>
       <c r="Q28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R28" t="s">
         <v>142</v>
       </c>
       <c r="S28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y28" t="s">
         <v>134</v>
@@ -3118,7 +3118,7 @@
         <v>134</v>
       </c>
       <c r="AA28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3126,25 +3126,25 @@
         <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C29">
         <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F29">
         <v>60.25</v>
       </c>
-      <c r="G29" t="s">
-        <v>113</v>
+      <c r="G29">
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
         <v>127</v>
@@ -3162,7 +3162,7 @@
         <v>131</v>
       </c>
       <c r="N29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O29" t="s">
         <v>135</v>
@@ -3171,34 +3171,34 @@
         <v>126</v>
       </c>
       <c r="Q29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T29" t="s">
         <v>131</v>
       </c>
       <c r="U29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V29" t="s">
         <v>142</v>
       </c>
       <c r="W29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y29" t="s">
         <v>126</v>
       </c>
       <c r="Z29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA29" t="s">
         <v>135</v>
@@ -3209,22 +3209,22 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F30">
         <v>76.43000030517578</v>
       </c>
-      <c r="G30" t="s">
-        <v>113</v>
+      <c r="G30">
+        <v>17</v>
       </c>
       <c r="H30" t="s">
         <v>123</v>
@@ -3233,19 +3233,19 @@
         <v>137</v>
       </c>
       <c r="J30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O30" t="s">
         <v>144</v>
@@ -3254,34 +3254,34 @@
         <v>142</v>
       </c>
       <c r="Q30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V30" t="s">
         <v>142</v>
       </c>
       <c r="W30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y30" t="s">
         <v>117</v>
       </c>
       <c r="Z30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA30" t="s">
         <v>144</v>
@@ -3292,43 +3292,43 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31">
         <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F31">
         <v>103.5400009155273</v>
       </c>
-      <c r="G31" t="s">
-        <v>112</v>
+      <c r="G31">
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O31" t="s">
         <v>144</v>
@@ -3337,25 +3337,25 @@
         <v>142</v>
       </c>
       <c r="Q31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X31" t="s">
         <v>142</v>
@@ -3364,7 +3364,7 @@
         <v>142</v>
       </c>
       <c r="Z31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA31" t="s">
         <v>144</v>
@@ -3375,25 +3375,25 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C32">
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F32">
         <v>110.9400024414062</v>
       </c>
-      <c r="G32" t="s">
-        <v>112</v>
+      <c r="G32">
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I32" t="s">
         <v>137</v>
@@ -3411,46 +3411,46 @@
         <v>135</v>
       </c>
       <c r="N32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P32" t="s">
         <v>134</v>
       </c>
       <c r="Q32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S32" t="s">
         <v>131</v>
       </c>
       <c r="T32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y32" t="s">
         <v>134</v>
       </c>
       <c r="Z32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3458,82 +3458,82 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33">
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F33">
         <v>138.6699981689453</v>
       </c>
-      <c r="G33" t="s">
-        <v>111</v>
+      <c r="G33">
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P33" t="s">
         <v>134</v>
       </c>
       <c r="Q33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y33" t="s">
         <v>134</v>
       </c>
       <c r="Z33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3541,82 +3541,82 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34">
         <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F34">
         <v>129.4299926757812</v>
       </c>
-      <c r="G34" t="s">
-        <v>111</v>
+      <c r="G34">
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P34" t="s">
         <v>134</v>
       </c>
       <c r="Q34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y34" t="s">
         <v>134</v>
       </c>
       <c r="Z34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -3624,79 +3624,79 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
       </c>
       <c r="H35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3704,79 +3704,79 @@
         <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G36" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G36">
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="I36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J36" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="L36" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="M36" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="N36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q36" t="s">
         <v>126</v>
       </c>
       <c r="R36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3784,43 +3784,43 @@
         <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P37" t="s">
         <v>142</v>
@@ -3829,34 +3829,34 @@
         <v>126</v>
       </c>
       <c r="R37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y37" t="s">
         <v>142</v>
       </c>
       <c r="Z37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -3864,43 +3864,43 @@
         <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C38">
         <v>3.75</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P38" t="s">
         <v>142</v>
@@ -3909,34 +3909,34 @@
         <v>126</v>
       </c>
       <c r="R38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y38" t="s">
         <v>142</v>
       </c>
       <c r="Z38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -3944,79 +3944,79 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C39">
         <v>8.5</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P39" t="s">
         <v>142</v>
       </c>
       <c r="Q39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y39" t="s">
         <v>142</v>
       </c>
       <c r="Z39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -4024,79 +4024,79 @@
         <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C40">
         <v>2.25</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G40">
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P40" t="s">
         <v>142</v>
       </c>
       <c r="Q40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y40" t="s">
         <v>142</v>
       </c>
       <c r="Z40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4104,79 +4104,79 @@
         <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C41">
         <v>1.25</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G41">
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P41" t="s">
         <v>142</v>
       </c>
       <c r="Q41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y41" t="s">
         <v>142</v>
       </c>
       <c r="Z41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -4184,79 +4184,79 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P42" t="s">
         <v>142</v>
       </c>
       <c r="Q42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y42" t="s">
         <v>142</v>
       </c>
       <c r="Z42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4264,79 +4264,79 @@
         <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43">
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G43">
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P43" t="s">
         <v>134</v>
       </c>
       <c r="Q43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y43" t="s">
         <v>134</v>
       </c>
       <c r="Z43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA43" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4344,79 +4344,79 @@
         <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -4424,40 +4424,40 @@
         <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="I45" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J45" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="K45" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="M45" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="N45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O45" t="s">
         <v>131</v>
@@ -4466,34 +4466,34 @@
         <v>134</v>
       </c>
       <c r="Q45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S45" t="s">
         <v>131</v>
       </c>
       <c r="T45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X45" t="s">
         <v>135</v>
       </c>
       <c r="Y45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z45" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA45" t="s">
         <v>131</v>
@@ -4504,79 +4504,79 @@
         <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46">
         <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G46">
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P46" t="s">
         <v>134</v>
       </c>
       <c r="Q46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y46" t="s">
         <v>134</v>
       </c>
       <c r="Z46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA46" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4584,79 +4584,79 @@
         <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C47">
         <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA47" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4664,79 +4664,79 @@
         <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
-      </c>
-      <c r="G48" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P48" t="s">
         <v>134</v>
       </c>
       <c r="Q48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y48" t="s">
         <v>134</v>
       </c>
       <c r="Z48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA48" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4744,79 +4744,79 @@
         <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49">
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G49">
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P49" t="s">
         <v>134</v>
       </c>
       <c r="Q49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y49" t="s">
         <v>134</v>
       </c>
       <c r="Z49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -4824,79 +4824,79 @@
         <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50">
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -4904,79 +4904,79 @@
         <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C51">
         <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G51">
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P51" t="s">
         <v>134</v>
       </c>
       <c r="Q51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y51" t="s">
         <v>134</v>
       </c>
       <c r="Z51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -4984,19 +4984,19 @@
         <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C52">
         <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G52">
+        <v>20</v>
       </c>
       <c r="H52" t="s">
         <v>125</v>
@@ -5017,46 +5017,46 @@
         <v>131</v>
       </c>
       <c r="N52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P52" t="s">
         <v>142</v>
       </c>
       <c r="Q52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S52" t="s">
         <v>131</v>
       </c>
       <c r="T52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V52" t="s">
         <v>135</v>
       </c>
       <c r="W52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y52" t="s">
         <v>142</v>
       </c>
       <c r="Z52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5064,79 +5064,79 @@
         <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53">
         <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G53">
+        <v>11</v>
       </c>
       <c r="H53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -5144,79 +5144,79 @@
         <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C54">
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
-      </c>
-      <c r="G54" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G54">
+        <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5224,79 +5224,79 @@
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C55">
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I55" t="s">
         <v>136</v>
       </c>
       <c r="J55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P55" t="s">
         <v>134</v>
       </c>
       <c r="Q55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y55" t="s">
         <v>134</v>
       </c>
       <c r="Z55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA55" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5304,79 +5304,79 @@
         <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C56">
         <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G56">
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P56" t="s">
         <v>134</v>
       </c>
       <c r="Q56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y56" t="s">
         <v>134</v>
       </c>
       <c r="Z56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA56" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5384,79 +5384,79 @@
         <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57">
         <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I57" t="s">
         <v>123</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P57" t="s">
         <v>134</v>
       </c>
       <c r="Q57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y57" t="s">
         <v>134</v>
       </c>
       <c r="Z57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA57" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5464,22 +5464,22 @@
         <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58">
         <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I58" t="s">
         <v>139</v>
@@ -5494,7 +5494,7 @@
         <v>142</v>
       </c>
       <c r="M58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N58" t="s">
         <v>143</v>
@@ -5503,34 +5503,34 @@
         <v>144</v>
       </c>
       <c r="P58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T58" t="s">
         <v>142</v>
       </c>
       <c r="U58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z58" t="s">
         <v>143</v>
@@ -5544,79 +5544,79 @@
         <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C59">
         <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G59">
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P59" t="s">
         <v>134</v>
       </c>
       <c r="Q59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y59" t="s">
         <v>134</v>
       </c>
       <c r="Z59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA59" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5624,79 +5624,79 @@
         <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C60">
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G60">
+        <v>11</v>
       </c>
       <c r="H60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA60" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5704,19 +5704,19 @@
         <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C61">
         <v>48</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
-      </c>
-      <c r="G61" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G61">
+        <v>18</v>
       </c>
       <c r="H61" t="s">
         <v>123</v>
@@ -5725,34 +5725,34 @@
         <v>140</v>
       </c>
       <c r="J61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P61" t="s">
         <v>135</v>
       </c>
       <c r="Q61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R61" t="s">
         <v>126</v>
       </c>
       <c r="S61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T61" t="s">
         <v>142</v>
@@ -5761,10 +5761,10 @@
         <v>142</v>
       </c>
       <c r="V61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X61" t="s">
         <v>135</v>
@@ -5773,10 +5773,10 @@
         <v>135</v>
       </c>
       <c r="Z61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -5784,70 +5784,70 @@
         <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C62">
         <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G62">
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N62" t="s">
         <v>143</v>
       </c>
       <c r="O62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P62" t="s">
         <v>134</v>
       </c>
       <c r="Q62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y62" t="s">
         <v>134</v>
@@ -5856,7 +5856,7 @@
         <v>143</v>
       </c>
       <c r="AA62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -5864,31 +5864,31 @@
         <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63">
         <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I63" t="s">
         <v>120</v>
       </c>
       <c r="J63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L63" t="s">
         <v>134</v>
@@ -5897,46 +5897,46 @@
         <v>135</v>
       </c>
       <c r="N63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U63" t="s">
         <v>142</v>
       </c>
       <c r="V63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -5944,40 +5944,40 @@
         <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C64">
         <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
-      </c>
-      <c r="G64" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G64">
+        <v>17</v>
       </c>
       <c r="H64" t="s">
         <v>121</v>
       </c>
       <c r="I64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O64" t="s">
         <v>142</v>
@@ -5986,34 +5986,34 @@
         <v>142</v>
       </c>
       <c r="Q64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V64" t="s">
         <v>135</v>
       </c>
       <c r="W64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y64" t="s">
         <v>142</v>
       </c>
       <c r="Z64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA64" t="s">
         <v>142</v>
@@ -6024,79 +6024,79 @@
         <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C65">
         <v>50</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
-      </c>
-      <c r="G65" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G65">
+        <v>12</v>
       </c>
       <c r="H65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I65" t="s">
         <v>136</v>
       </c>
       <c r="J65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -6104,22 +6104,22 @@
         <v>91</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66">
         <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G66">
+        <v>18</v>
       </c>
       <c r="H66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I66" t="s">
         <v>120</v>
@@ -6137,46 +6137,46 @@
         <v>131</v>
       </c>
       <c r="N66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q66" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="R66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U66" t="s">
         <v>142</v>
       </c>
       <c r="V66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -6184,19 +6184,19 @@
         <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67">
         <v>43</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
-      </c>
-      <c r="G67" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G67">
+        <v>20</v>
       </c>
       <c r="H67" t="s">
         <v>126</v>
@@ -6205,37 +6205,37 @@
         <v>141</v>
       </c>
       <c r="J67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K67" t="s">
         <v>131</v>
       </c>
       <c r="L67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O67" t="s">
         <v>123</v>
       </c>
       <c r="P67" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="Q67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U67" t="s">
         <v>142</v>
@@ -6244,16 +6244,16 @@
         <v>142</v>
       </c>
       <c r="W67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X67" t="s">
         <v>142</v>
       </c>
       <c r="Y67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA67" t="s">
         <v>123</v>
@@ -6264,79 +6264,159 @@
         <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="G68">
+        <v>11</v>
       </c>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="S68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="T68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="V68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Z68" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AA68" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
+      <c r="A69" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>102</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+      <c r="K69" t="s">
+        <v>102</v>
+      </c>
+      <c r="L69" t="s">
+        <v>102</v>
+      </c>
+      <c r="M69" t="s">
+        <v>102</v>
+      </c>
+      <c r="N69" t="s">
+        <v>102</v>
+      </c>
+      <c r="O69" t="s">
+        <v>102</v>
+      </c>
+      <c r="P69" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>102</v>
+      </c>
+      <c r="R69" t="s">
+        <v>102</v>
+      </c>
+      <c r="S69" t="s">
+        <v>102</v>
+      </c>
+      <c r="T69" t="s">
+        <v>102</v>
+      </c>
+      <c r="U69" t="s">
+        <v>102</v>
+      </c>
+      <c r="V69" t="s">
+        <v>102</v>
+      </c>
+      <c r="W69" t="s">
+        <v>102</v>
+      </c>
+      <c r="X69" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/output/report.xlsx
+++ b/output/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="145">
   <si>
-    <t>Cell_Type</t>
+    <t>Disease_Status</t>
   </si>
   <si>
     <t>Age</t>
@@ -34,7 +34,7 @@
     <t>Count_Experiments</t>
   </si>
   <si>
-    <t>LIVE</t>
+    <t>Live_Cell_Imaging</t>
   </si>
   <si>
     <t>Mito morphology</t>
